--- a/TOC/2024.Nov.ASDE Training TOC - v4.xlsx
+++ b/TOC/2024.Nov.ASDE Training TOC - v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\PSI-2024 Nov ASDE BLR Batch 1\TOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4417A81-94B8-4E37-B26F-9E2619D78E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0F6C69-2A4B-4622-A9A1-93A2278FEF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18926,8 +18926,8 @@
   <dimension ref="A1:M1874"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C607" sqref="C607"/>
+      <pane ySplit="2" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C616" sqref="C616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/TOC/2024.Nov.ASDE Training TOC - v4.xlsx
+++ b/TOC/2024.Nov.ASDE Training TOC - v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\PSI-2024 Nov ASDE BLR Batch 1\TOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0F6C69-2A4B-4622-A9A1-93A2278FEF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB54D5-0B20-4E22-9537-05E4ABBA1B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Template - 2022" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4730" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="2155">
   <si>
     <t>Topic</t>
   </si>
@@ -5538,57 +5538,6 @@
   </si>
   <si>
     <t>NoSQL Databases - Mongo DB</t>
-  </si>
-  <si>
-    <t>Creating and Managing Container Images with Podman</t>
-  </si>
-  <si>
-    <t>Understanding Images and Registries</t>
-  </si>
-  <si>
-    <t>Understanding Container Images and Registries</t>
-  </si>
-  <si>
-    <t>Hands-On: Setup the Lab Environment</t>
-  </si>
-  <si>
-    <t>Managing Images</t>
-  </si>
-  <si>
-    <t>Image Management with Podman</t>
-  </si>
-  <si>
-    <t>Hands-On: Managing Images with Podman</t>
-  </si>
-  <si>
-    <t>Hands-On: Image Tagging</t>
-  </si>
-  <si>
-    <t>Hands-On: Saving Images and Container States</t>
-  </si>
-  <si>
-    <t>Implementing Images</t>
-  </si>
-  <si>
-    <t>Working with Containerfiles</t>
-  </si>
-  <si>
-    <t>Hands-On: Extending a Container Image with Basic Instructions</t>
-  </si>
-  <si>
-    <t>Hands-On: Extending a Container Image with Advanced Instructions</t>
-  </si>
-  <si>
-    <t>Arguments and Volumes</t>
-  </si>
-  <si>
-    <t>Multi-staged Builds</t>
-  </si>
-  <si>
-    <t>Rootless Podman</t>
-  </si>
-  <si>
-    <t>Hands-On: Managing Security and Permissions</t>
   </si>
   <si>
     <t>Container Ochestration with Kubernetes</t>
@@ -6756,7 +6705,97 @@
     <t>Benefits of GCP Observability Toolset</t>
   </si>
   <si>
-    <t>Creating and Managing Container Images</t>
+    <t>1. Course Overview</t>
+  </si>
+  <si>
+    <t>2. Setting up Your Development Environment</t>
+  </si>
+  <si>
+    <t>1.Course Agenda</t>
+  </si>
+  <si>
+    <t>2. Module Overview</t>
+  </si>
+  <si>
+    <t>3. The Case for Docker</t>
+  </si>
+  <si>
+    <t>4. Software Installation</t>
+  </si>
+  <si>
+    <t>5. Examine the Application</t>
+  </si>
+  <si>
+    <t>6. Summary</t>
+  </si>
+  <si>
+    <t>3. Create an Application Image</t>
+  </si>
+  <si>
+    <t>1. Module Overview</t>
+  </si>
+  <si>
+    <t>2. Understand Dockerfiles</t>
+  </si>
+  <si>
+    <t>3. Create a Custom Application Dockerfile</t>
+  </si>
+  <si>
+    <t>4. Using docker build</t>
+  </si>
+  <si>
+    <t>5. Build a Custom Application Image</t>
+  </si>
+  <si>
+    <t>6. Deploy an Application Image to a Registry</t>
+  </si>
+  <si>
+    <t>7. Use the VS Code Docker Extension</t>
+  </si>
+  <si>
+    <t>8. Summary</t>
+  </si>
+  <si>
+    <t>4. Run an Application Container</t>
+  </si>
+  <si>
+    <t>2. Run an Application Container</t>
+  </si>
+  <si>
+    <t>3. Using docker run</t>
+  </si>
+  <si>
+    <t>4. View Container Logs</t>
+  </si>
+  <si>
+    <t>5. Using Container Volumes</t>
+  </si>
+  <si>
+    <t>6. Create a Container Volume</t>
+  </si>
+  <si>
+    <t>7. Summary</t>
+  </si>
+  <si>
+    <t>5. Communicate between Multiple Containers</t>
+  </si>
+  <si>
+    <t>2. Create a Bridge Network</t>
+  </si>
+  <si>
+    <t>3. Run a Database Container in a Network</t>
+  </si>
+  <si>
+    <t>4. Run an Application Container in a Network</t>
+  </si>
+  <si>
+    <t>5. Shell into a Container</t>
+  </si>
+  <si>
+    <t>6. Building and Running Multiple Containers with Docker Compose</t>
+  </si>
+  <si>
+    <t>7. Using Docker Compose Commands</t>
   </si>
 </sst>
 </file>
@@ -13751,7 +13790,7 @@
         <v>797</v>
       </c>
       <c r="E426" s="47" t="s">
-        <v>1972</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="25">
@@ -16381,7 +16420,7 @@
         <v>730</v>
       </c>
       <c r="E613" s="48" t="s">
-        <v>1973</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="614" spans="1:5" ht="26">
@@ -16398,7 +16437,7 @@
         <v>730</v>
       </c>
       <c r="E614" s="48" t="s">
-        <v>1974</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -16499,7 +16538,7 @@
         <v>730</v>
       </c>
       <c r="E621" s="46" t="s">
-        <v>1975</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -16650,7 +16689,7 @@
         <v>730</v>
       </c>
       <c r="E632" s="48" t="s">
-        <v>2051</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -18316,10 +18355,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A7F07D-A6D7-4BA7-ADA6-D6244D6DC8FA}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -18661,7 +18700,7 @@
         <v>698</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>2141</v>
+        <v>699</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.5" customHeight="1">
@@ -18675,7 +18714,7 @@
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34" t="s">
-        <v>1783</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -18764,7 +18803,7 @@
         <v>615</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>1815</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -18800,7 +18839,7 @@
     <row r="62" spans="1:4">
       <c r="B62" s="34"/>
       <c r="C62" s="34" t="s">
-        <v>1959</v>
+        <v>1942</v>
       </c>
       <c r="D62" s="33"/>
     </row>
@@ -18816,7 +18855,7 @@
         <v>400</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>1848</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -18830,15 +18869,15 @@
         <v>400</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>1901</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="27">
       <c r="B67" s="34" t="s">
-        <v>2043</v>
+        <v>2026</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>2045</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -18857,7 +18896,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="33" t="s">
-        <v>1920</v>
+        <v>1903</v>
       </c>
       <c r="B71" s="34" t="s">
         <v>784</v>
@@ -18868,13 +18907,13 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="33" t="s">
-        <v>1922</v>
+        <v>1905</v>
       </c>
       <c r="B73" s="34" t="s">
         <v>281</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>1921</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -18895,10 +18934,10 @@
     <row r="76" spans="1:3">
       <c r="A76" s="33"/>
       <c r="B76" s="40" t="s">
-        <v>2052</v>
+        <v>2035</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>2053</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.5">
@@ -18923,11 +18962,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E77354-39DB-4E45-A638-0E6F14DE89BD}">
-  <dimension ref="A1:M1874"/>
+  <dimension ref="A1:M1890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C616" sqref="C616"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A933" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C938" sqref="C938"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -19683,7 +19722,7 @@
     </row>
     <row r="128" spans="3:9">
       <c r="C128" s="29" t="s">
-        <v>2011</v>
+        <v>1994</v>
       </c>
       <c r="I128" s="28"/>
     </row>
@@ -19695,7 +19734,7 @@
     </row>
     <row r="130" spans="3:9">
       <c r="C130" s="29" t="s">
-        <v>2049</v>
+        <v>2032</v>
       </c>
       <c r="I130" s="28"/>
     </row>
@@ -19707,19 +19746,19 @@
     </row>
     <row r="132" spans="3:9">
       <c r="C132" s="29" t="s">
-        <v>2050</v>
+        <v>2033</v>
       </c>
       <c r="I132" s="28"/>
     </row>
     <row r="133" spans="3:9">
       <c r="C133" s="29" t="s">
-        <v>2046</v>
+        <v>2029</v>
       </c>
       <c r="I133" s="28"/>
     </row>
     <row r="134" spans="3:9">
       <c r="C134" s="29" t="s">
-        <v>2047</v>
+        <v>2030</v>
       </c>
       <c r="I134" s="28"/>
     </row>
@@ -19842,7 +19881,7 @@
     </row>
     <row r="155" spans="1:9" ht="27.5">
       <c r="C155" s="29" t="s">
-        <v>2048</v>
+        <v>2031</v>
       </c>
       <c r="I155" s="28"/>
     </row>
@@ -20804,7 +20843,7 @@
     <row r="320" spans="1:9" ht="15.5">
       <c r="B320" s="30"/>
       <c r="C320" s="61" t="s">
-        <v>2095</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="321" spans="2:9" ht="15.5">
@@ -20862,7 +20901,7 @@
     <row r="330" spans="2:9" ht="15.5">
       <c r="B330" s="30"/>
       <c r="C330" s="26" t="s">
-        <v>2096</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="331" spans="2:9" ht="15.5">
@@ -24047,7 +24086,7 @@
       <c r="A924" s="34"/>
       <c r="B924" s="25"/>
       <c r="C924" s="26" t="s">
-        <v>1976</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="925" spans="1:3">
@@ -24139,300 +24178,376 @@
         <v>1413</v>
       </c>
       <c r="C938" s="34" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c r="A939" s="34"/>
+      <c r="B939" s="25"/>
+      <c r="C939" s="28" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3">
+      <c r="A940" s="34"/>
+      <c r="B940" s="25"/>
+    </row>
+    <row r="941" spans="1:3">
+      <c r="A941" s="34"/>
+      <c r="B941" s="25"/>
+      <c r="C941" s="28" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3">
+      <c r="A942" s="34"/>
+      <c r="B942" s="25"/>
+      <c r="C942" s="28" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3">
+      <c r="A943" s="34"/>
+      <c r="B943" s="25"/>
+      <c r="C943" s="28" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3">
+      <c r="A944" s="34"/>
+      <c r="B944" s="25"/>
+      <c r="C944" s="28" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3">
+      <c r="A945" s="34"/>
+      <c r="B945" s="25"/>
+      <c r="C945" s="28" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
+      <c r="A946" s="34"/>
+      <c r="B946" s="25"/>
+      <c r="C946" s="28" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3">
+      <c r="A947" s="34"/>
+      <c r="B947" s="25"/>
+      <c r="C947" s="28" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c r="A948" s="34"/>
+      <c r="B948" s="25"/>
+    </row>
+    <row r="949" spans="1:3">
+      <c r="A949" s="34"/>
+      <c r="B949" s="25"/>
+      <c r="C949" s="28" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c r="A950" s="34"/>
+      <c r="B950" s="25"/>
+      <c r="C950" s="28" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c r="A951" s="34"/>
+      <c r="B951" s="25"/>
+      <c r="C951" s="28" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c r="A952" s="34"/>
+      <c r="B952" s="25"/>
+      <c r="C952" s="28" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="A953" s="34"/>
+      <c r="B953" s="25"/>
+      <c r="C953" s="28" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="A954" s="34"/>
+      <c r="B954" s="25"/>
+      <c r="C954" s="28" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c r="A955" s="34"/>
+      <c r="B955" s="25"/>
+      <c r="C955" s="28" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c r="A956" s="34"/>
+      <c r="B956" s="25"/>
+      <c r="C956" s="28" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c r="A957" s="34"/>
+      <c r="B957" s="25"/>
+      <c r="C957" s="28" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c r="A958" s="34"/>
+      <c r="B958" s="25"/>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="A959" s="34"/>
+      <c r="B959" s="25"/>
+      <c r="C959" s="28" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c r="A960" s="34"/>
+      <c r="B960" s="25"/>
+      <c r="C960" s="28" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3">
+      <c r="A961" s="34"/>
+      <c r="B961" s="25"/>
+      <c r="C961" s="28" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3">
+      <c r="A962" s="34"/>
+      <c r="B962" s="25"/>
+      <c r="C962" s="28" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3">
+      <c r="A963" s="34"/>
+      <c r="B963" s="25"/>
+      <c r="C963" s="28" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3">
+      <c r="A964" s="34"/>
+      <c r="B964" s="25"/>
+      <c r="C964" s="28" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3">
+      <c r="A965" s="34"/>
+      <c r="B965" s="25"/>
+      <c r="C965" s="28" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3">
+      <c r="A966" s="34"/>
+      <c r="B966" s="25"/>
+      <c r="C966" s="28" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3">
+      <c r="A967" s="34"/>
+      <c r="B967" s="25"/>
+    </row>
+    <row r="968" spans="1:3">
+      <c r="A968" s="34"/>
+      <c r="B968" s="25"/>
+      <c r="C968" s="28" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3">
+      <c r="A969" s="34"/>
+      <c r="B969" s="25"/>
+      <c r="C969" s="28" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3">
+      <c r="A970" s="34"/>
+      <c r="B970" s="25"/>
+      <c r="C970" s="28" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3">
+      <c r="A971" s="34"/>
+      <c r="B971" s="25"/>
+      <c r="C971" s="28" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3">
+      <c r="A972" s="34"/>
+      <c r="B972" s="25"/>
+      <c r="C972" s="28" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3">
+      <c r="A973" s="34"/>
+      <c r="B973" s="25"/>
+      <c r="C973" s="28" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3">
+      <c r="A974" s="34"/>
+      <c r="B974" s="25"/>
+      <c r="C974" s="28" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3">
+      <c r="A975" s="34"/>
+      <c r="B975" s="25"/>
+      <c r="C975" s="28" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3">
+      <c r="A976" s="34"/>
+      <c r="B976" s="25"/>
+      <c r="C976" s="28" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="977" spans="2:3">
+      <c r="C977" s="32"/>
+    </row>
+    <row r="978" spans="2:3">
+      <c r="B978" s="33" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C978" s="34" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="939" spans="1:3">
-      <c r="C939" s="32" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="940" spans="1:3">
-      <c r="C940" s="20"/>
-    </row>
-    <row r="941" spans="1:3">
-      <c r="C941" s="34" t="s">
+    <row r="979" spans="2:3">
+      <c r="C979" s="40" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="980" spans="2:3">
+      <c r="C980" s="34"/>
+    </row>
+    <row r="981" spans="2:3">
+      <c r="C981" s="34" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="942" spans="1:3">
-      <c r="C942" s="32" t="s">
+    <row r="982" spans="2:3">
+      <c r="C982" s="32" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="983" spans="2:3">
+      <c r="C983" s="32" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="943" spans="1:3">
-      <c r="C943" s="32" t="s">
+    <row r="984" spans="2:3">
+      <c r="C984" s="32" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="944" spans="1:3">
-      <c r="C944" s="32"/>
-    </row>
-    <row r="945" spans="3:3">
-      <c r="C945" s="40" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="946" spans="3:3">
-      <c r="C946" s="32" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="947" spans="3:3">
-      <c r="C947" s="32" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="948" spans="3:3">
-      <c r="C948" s="32" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="949" spans="3:3">
-      <c r="C949" s="32" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="950" spans="3:3">
-      <c r="C950" s="32"/>
-    </row>
-    <row r="951" spans="3:3">
-      <c r="C951" s="34" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="952" spans="3:3">
-      <c r="C952" s="32" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="953" spans="3:3">
-      <c r="C953" s="32" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="954" spans="3:3">
-      <c r="C954" s="32" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="955" spans="3:3">
-      <c r="C955" s="32" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="956" spans="3:3">
-      <c r="C956" s="32" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="957" spans="3:3">
-      <c r="C957" s="32"/>
-    </row>
-    <row r="958" spans="3:3">
-      <c r="C958" s="34" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="959" spans="3:3">
-      <c r="C959" s="32" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="960" spans="3:3">
-      <c r="C960" s="32" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="961" spans="2:3">
-      <c r="C961" s="32"/>
-    </row>
-    <row r="962" spans="2:3">
-      <c r="B962" s="33" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C962" s="34" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="963" spans="2:3">
-      <c r="C963" s="40" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="964" spans="2:3">
-      <c r="C964" s="34"/>
-    </row>
-    <row r="965" spans="2:3">
-      <c r="C965" s="34" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="966" spans="2:3">
-      <c r="C966" s="32" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="967" spans="2:3">
-      <c r="C967" s="32" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="968" spans="2:3">
-      <c r="C968" s="32" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="969" spans="2:3">
-      <c r="C969" s="32"/>
-    </row>
-    <row r="970" spans="2:3">
-      <c r="C970" s="34" t="s">
+    <row r="985" spans="2:3">
+      <c r="C985" s="32"/>
+    </row>
+    <row r="986" spans="2:3">
+      <c r="C986" s="34" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="971" spans="2:3">
-      <c r="C971" s="32" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="972" spans="2:3">
-      <c r="C972" s="32" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="973" spans="2:3">
-      <c r="C973" s="32" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="974" spans="2:3">
-      <c r="C974" s="32" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="975" spans="2:3">
-      <c r="C975" s="32" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="976" spans="2:3">
-      <c r="C976" s="32" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="977" spans="3:3">
-      <c r="C977" s="32" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="978" spans="3:3">
-      <c r="C978" s="32" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="979" spans="3:3">
-      <c r="C979" s="32" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="980" spans="3:3">
-      <c r="C980" s="32" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="981" spans="3:3">
-      <c r="C981" s="32"/>
-    </row>
-    <row r="982" spans="3:3">
-      <c r="C982" s="34" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="983" spans="3:3">
-      <c r="C983" s="32" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="984" spans="3:3">
-      <c r="C984" s="32" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="985" spans="3:3">
-      <c r="C985" s="32"/>
-    </row>
-    <row r="986" spans="3:3">
-      <c r="C986" s="34" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="987" spans="3:3">
+    <row r="987" spans="2:3">
       <c r="C987" s="32" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="988" spans="3:3">
+    <row r="988" spans="2:3">
       <c r="C988" s="32" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="989" spans="3:3">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="989" spans="2:3">
       <c r="C989" s="32" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="990" spans="3:3">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="990" spans="2:3">
       <c r="C990" s="32" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="991" spans="3:3">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="991" spans="2:3">
       <c r="C991" s="32" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="992" spans="3:3">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="992" spans="2:3">
       <c r="C992" s="32" t="s">
-        <v>1795</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="993" spans="3:3">
-      <c r="C993" s="32"/>
+      <c r="C993" s="32" t="s">
+        <v>1775</v>
+      </c>
     </row>
     <row r="994" spans="3:3">
-      <c r="C994" s="34" t="s">
-        <v>1803</v>
+      <c r="C994" s="32" t="s">
+        <v>1776</v>
       </c>
     </row>
     <row r="995" spans="3:3">
       <c r="C995" s="32" t="s">
-        <v>829</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="996" spans="3:3">
       <c r="C996" s="32" t="s">
-        <v>1804</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="997" spans="3:3">
-      <c r="C997" s="32" t="s">
-        <v>1805</v>
-      </c>
+      <c r="C997" s="32"/>
     </row>
     <row r="998" spans="3:3">
-      <c r="C998" s="32" t="s">
-        <v>1806</v>
+      <c r="C998" s="34" t="s">
+        <v>1779</v>
       </c>
     </row>
     <row r="999" spans="3:3">
       <c r="C999" s="32" t="s">
-        <v>1807</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1000" spans="3:3">
       <c r="C1000" s="32" t="s">
-        <v>1795</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1001" spans="3:3">
@@ -24440,7 +24555,7 @@
     </row>
     <row r="1002" spans="3:3">
       <c r="C1002" s="34" t="s">
-        <v>1808</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1003" spans="3:3">
@@ -24450,1246 +24565,1234 @@
     </row>
     <row r="1004" spans="3:3">
       <c r="C1004" s="32" t="s">
-        <v>1809</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="1005" spans="3:3">
       <c r="C1005" s="32" t="s">
-        <v>1810</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="1006" spans="3:3">
       <c r="C1006" s="32" t="s">
-        <v>1811</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1007" spans="3:3">
       <c r="C1007" s="32" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1008" spans="3:3">
       <c r="C1008" s="32" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:3">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:3">
       <c r="C1009" s="32"/>
     </row>
-    <row r="1010" spans="1:3">
+    <row r="1010" spans="3:3">
       <c r="C1010" s="34" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:3">
-      <c r="C1011" s="32"/>
-    </row>
-    <row r="1012" spans="1:3" ht="27">
-      <c r="A1012" s="34" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1011" spans="3:3">
+      <c r="C1011" s="32" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1012" spans="3:3">
+      <c r="C1012" s="32" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1013" spans="3:3">
+      <c r="C1013" s="32" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1014" spans="3:3">
+      <c r="C1014" s="32" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1015" spans="3:3">
+      <c r="C1015" s="32" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1016" spans="3:3">
+      <c r="C1016" s="32" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1017" spans="3:3">
+      <c r="C1017" s="32"/>
+    </row>
+    <row r="1018" spans="3:3">
+      <c r="C1018" s="34" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1019" spans="3:3">
+      <c r="C1019" s="32" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1020" spans="3:3">
+      <c r="C1020" s="32" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1021" spans="3:3">
+      <c r="C1021" s="32" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1022" spans="3:3">
+      <c r="C1022" s="32" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1023" spans="3:3">
+      <c r="C1023" s="32" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1024" spans="3:3">
+      <c r="C1024" s="32" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3">
+      <c r="C1025" s="32"/>
+    </row>
+    <row r="1026" spans="1:3">
+      <c r="C1026" s="34" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3">
+      <c r="C1027" s="32"/>
+    </row>
+    <row r="1028" spans="1:3" ht="27">
+      <c r="A1028" s="34" t="s">
         <v>1091</v>
       </c>
-      <c r="B1012" s="33" t="s">
+      <c r="B1028" s="33" t="s">
         <v>1415</v>
       </c>
-      <c r="C1012" s="38" t="s">
+      <c r="C1028" s="38" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="1013" spans="1:3">
-      <c r="C1013" s="32" t="s">
+    <row r="1029" spans="1:3">
+      <c r="C1029" s="32" t="s">
         <v>1092</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:3">
-      <c r="C1014" s="32" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:3">
-      <c r="C1015" s="32" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:3">
-      <c r="C1016" s="32" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:3">
-      <c r="C1017" s="32" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:3">
-      <c r="C1018" s="32"/>
-    </row>
-    <row r="1019" spans="1:3">
-      <c r="C1019" s="38" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:3">
-      <c r="C1020" s="32" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:3">
-      <c r="C1021" s="32" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:3">
-      <c r="C1022" s="32" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:3" ht="15" customHeight="1">
-      <c r="C1023" s="32" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:3">
-      <c r="C1024" s="32" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:3">
-      <c r="C1025" s="32" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:3">
-      <c r="C1026" s="32" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:3">
-      <c r="C1027" s="32" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:3" ht="15.5">
-      <c r="B1028" s="30"/>
-      <c r="C1028" s="20"/>
-    </row>
-    <row r="1029" spans="1:3" ht="27">
-      <c r="A1029" s="34" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B1029" s="33"/>
-      <c r="C1029" s="34" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
       <c r="C1030" s="32" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
       <c r="C1031" s="32" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
       <c r="C1032" s="32" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
       <c r="C1033" s="32" t="s">
-        <v>1105</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
-      <c r="C1034" s="32" t="s">
-        <v>1106</v>
-      </c>
+      <c r="C1034" s="32"/>
     </row>
     <row r="1035" spans="1:3">
-      <c r="C1035" s="32" t="s">
-        <v>1107</v>
+      <c r="C1035" s="38" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
       <c r="C1036" s="32" t="s">
-        <v>1108</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
       <c r="C1037" s="32" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1038" spans="1:3">
       <c r="C1038" s="32" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" ht="15" customHeight="1">
       <c r="C1039" s="32" t="s">
-        <v>1111</v>
+        <v>466</v>
       </c>
     </row>
     <row r="1040" spans="1:3">
       <c r="C1040" s="32" t="s">
-        <v>1112</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
       <c r="C1041" s="32" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
       <c r="C1042" s="32" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1043" spans="1:3">
       <c r="C1043" s="32" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:3">
-      <c r="C1044" s="32" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:3">
-      <c r="C1045" s="32" t="s">
-        <v>1117</v>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" ht="15.5">
+      <c r="B1044" s="30"/>
+      <c r="C1044" s="20"/>
+    </row>
+    <row r="1045" spans="1:3" ht="27">
+      <c r="A1045" s="34" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B1045" s="33"/>
+      <c r="C1045" s="34" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="1046" spans="1:3">
       <c r="C1046" s="32" t="s">
-        <v>1118</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1047" spans="1:3">
       <c r="C1047" s="32" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1048" spans="1:3">
       <c r="C1048" s="32" t="s">
-        <v>1120</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
       <c r="C1049" s="32" t="s">
-        <v>1308</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1050" spans="1:3">
-      <c r="C1050" s="20"/>
-    </row>
-    <row r="1051" spans="1:3" ht="27">
-      <c r="A1051" s="34" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C1051" s="34" t="s">
-        <v>820</v>
+      <c r="C1050" s="32" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3">
+      <c r="C1051" s="32" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
       <c r="C1052" s="32" t="s">
-        <v>511</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1053" spans="1:3">
       <c r="C1053" s="32" t="s">
-        <v>512</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1054" spans="1:3">
       <c r="C1054" s="32" t="s">
-        <v>513</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
       <c r="C1055" s="32" t="s">
-        <v>514</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
       <c r="C1056" s="32" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3">
+      <c r="C1057" s="32" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3">
+      <c r="C1058" s="32" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3">
+      <c r="C1059" s="32" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3">
+      <c r="C1060" s="32" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3">
+      <c r="C1061" s="32" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3">
+      <c r="C1062" s="32" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3">
+      <c r="C1063" s="32" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3">
+      <c r="C1064" s="32" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3">
+      <c r="C1065" s="32" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3">
+      <c r="C1066" s="20"/>
+    </row>
+    <row r="1067" spans="1:3" ht="27">
+      <c r="A1067" s="34" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C1067" s="34" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3">
+      <c r="C1068" s="32" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3">
+      <c r="C1069" s="32" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3">
+      <c r="C1070" s="32" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3">
+      <c r="C1071" s="32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3">
+      <c r="C1072" s="32" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="1057" spans="1:4">
-      <c r="C1057" s="32" t="s">
+    <row r="1073" spans="1:4">
+      <c r="C1073" s="32" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="1058" spans="1:4">
-      <c r="C1058" s="32" t="s">
+    <row r="1074" spans="1:4">
+      <c r="C1074" s="32" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="1059" spans="1:4">
-      <c r="C1059" s="32" t="s">
+    <row r="1075" spans="1:4">
+      <c r="C1075" s="32" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1060" spans="1:4">
-      <c r="C1060" s="32" t="s">
+    <row r="1076" spans="1:4">
+      <c r="C1076" s="32" t="s">
         <v>1122</v>
       </c>
-      <c r="D1060" s="36"/>
-    </row>
-    <row r="1061" spans="1:4">
-      <c r="C1061" s="32" t="s">
+      <c r="D1076" s="36"/>
+    </row>
+    <row r="1077" spans="1:4">
+      <c r="C1077" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="D1061" s="36"/>
-    </row>
-    <row r="1062" spans="1:4">
-      <c r="C1062" s="32" t="s">
+      <c r="D1077" s="36"/>
+    </row>
+    <row r="1078" spans="1:4">
+      <c r="C1078" s="32" t="s">
         <v>521</v>
       </c>
-      <c r="D1062" s="36"/>
-    </row>
-    <row r="1063" spans="1:4">
-      <c r="C1063" s="32"/>
-      <c r="D1063" s="36"/>
-    </row>
-    <row r="1064" spans="1:4">
-      <c r="A1064" s="34" t="s">
+      <c r="D1078" s="36"/>
+    </row>
+    <row r="1079" spans="1:4">
+      <c r="C1079" s="32"/>
+      <c r="D1079" s="36"/>
+    </row>
+    <row r="1080" spans="1:4">
+      <c r="A1080" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="B1064" s="33" t="s">
+      <c r="B1080" s="33" t="s">
         <v>1416</v>
       </c>
-      <c r="C1064" s="34" t="s">
+      <c r="C1080" s="34" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="1065" spans="1:4">
-      <c r="C1065" s="34" t="s">
+    <row r="1081" spans="1:4">
+      <c r="C1081" s="34" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="1066" spans="1:4">
-      <c r="C1066" s="32" t="s">
+    <row r="1082" spans="1:4">
+      <c r="C1082" s="32" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1067" spans="1:4">
-      <c r="C1067" s="32" t="s">
+    <row r="1083" spans="1:4">
+      <c r="C1083" s="32" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="1068" spans="1:4">
-      <c r="C1068" s="32" t="s">
+    <row r="1084" spans="1:4">
+      <c r="C1084" s="32" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="1069" spans="1:4">
-      <c r="C1069" s="32" t="s">
+    <row r="1085" spans="1:4">
+      <c r="C1085" s="32" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="1070" spans="1:4">
-      <c r="C1070" s="32" t="s">
+    <row r="1086" spans="1:4">
+      <c r="C1086" s="32" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="1071" spans="1:4">
-      <c r="C1071" s="32" t="s">
+    <row r="1087" spans="1:4">
+      <c r="C1087" s="32" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="1072" spans="1:4">
-      <c r="C1072" s="32" t="s">
+    <row r="1088" spans="1:4">
+      <c r="C1088" s="32" t="s">
         <v>1129</v>
-      </c>
-    </row>
-    <row r="1073" spans="3:3">
-      <c r="C1073" s="32" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="1074" spans="3:3">
-      <c r="C1074" s="32" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="1075" spans="3:3">
-      <c r="C1075" s="32" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1076" spans="3:3">
-      <c r="C1076" s="32"/>
-    </row>
-    <row r="1077" spans="3:3">
-      <c r="C1077" s="34" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1078" spans="3:3">
-      <c r="C1078" s="32" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="1079" spans="3:3">
-      <c r="C1079" s="32" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1080" spans="3:3">
-      <c r="C1080" s="32" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="1081" spans="3:3">
-      <c r="C1081" s="32" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="1082" spans="3:3">
-      <c r="C1082" s="32" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="1083" spans="3:3">
-      <c r="C1083" s="32" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="1084" spans="3:3">
-      <c r="C1084" s="32" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="1085" spans="3:3">
-      <c r="C1085" s="32" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="1086" spans="3:3">
-      <c r="C1086" s="32" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="1087" spans="3:3">
-      <c r="C1087" s="32" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="1088" spans="3:3">
-      <c r="C1088" s="32" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="1089" spans="3:3">
       <c r="C1089" s="32" t="s">
-        <v>1315</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1090" spans="3:3">
       <c r="C1090" s="32" t="s">
-        <v>1139</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1091" spans="3:3">
-      <c r="C1091" s="32"/>
+      <c r="C1091" s="32" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="1092" spans="3:3">
-      <c r="C1092" s="34" t="s">
-        <v>1140</v>
-      </c>
+      <c r="C1092" s="32"/>
     </row>
     <row r="1093" spans="3:3">
-      <c r="C1093" s="32" t="s">
-        <v>1141</v>
+      <c r="C1093" s="34" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="1094" spans="3:3">
       <c r="C1094" s="32" t="s">
-        <v>1316</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1095" spans="3:3">
       <c r="C1095" s="32" t="s">
-        <v>1317</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1096" spans="3:3">
       <c r="C1096" s="32" t="s">
-        <v>1318</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1097" spans="3:3">
       <c r="C1097" s="32" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1098" spans="3:3">
       <c r="C1098" s="32" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1099" spans="3:3">
       <c r="C1099" s="32" t="s">
-        <v>1143</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1100" spans="3:3">
-      <c r="C1100" s="32"/>
+      <c r="C1100" s="32" t="s">
+        <v>1312</v>
+      </c>
     </row>
     <row r="1101" spans="3:3">
-      <c r="C1101" s="34" t="s">
-        <v>1144</v>
+      <c r="C1101" s="32" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="1102" spans="3:3">
       <c r="C1102" s="32" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1103" spans="3:3">
       <c r="C1103" s="32" t="s">
-        <v>1146</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1104" spans="3:3">
       <c r="C1104" s="32" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1105" spans="3:3">
       <c r="C1105" s="32" t="s">
-        <v>1148</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1106" spans="3:3">
       <c r="C1106" s="32" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1107" spans="3:3">
-      <c r="C1107" s="32" t="s">
-        <v>1150</v>
-      </c>
+      <c r="C1107" s="32"/>
     </row>
     <row r="1108" spans="3:3">
-      <c r="C1108" s="32" t="s">
-        <v>1320</v>
+      <c r="C1108" s="34" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1109" spans="3:3">
       <c r="C1109" s="32" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1110" spans="3:3">
       <c r="C1110" s="32" t="s">
-        <v>1626</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1111" spans="3:3">
       <c r="C1111" s="32" t="s">
-        <v>1131</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1112" spans="3:3">
-      <c r="C1112" s="32"/>
+      <c r="C1112" s="32" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="1113" spans="3:3">
-      <c r="C1113" s="34" t="s">
-        <v>1152</v>
+      <c r="C1113" s="32" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="1114" spans="3:3">
       <c r="C1114" s="32" t="s">
-        <v>1153</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1115" spans="3:3">
       <c r="C1115" s="32" t="s">
-        <v>1316</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1116" spans="3:3">
-      <c r="C1116" s="32" t="s">
-        <v>1154</v>
-      </c>
+      <c r="C1116" s="32"/>
     </row>
     <row r="1117" spans="3:3">
-      <c r="C1117" s="32" t="s">
-        <v>1155</v>
+      <c r="C1117" s="34" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="1118" spans="3:3">
       <c r="C1118" s="32" t="s">
-        <v>1321</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1119" spans="3:3">
       <c r="C1119" s="32" t="s">
-        <v>1319</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1120" spans="3:3">
       <c r="C1120" s="32" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1121" spans="3:3">
+      <c r="C1121" s="32" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1122" spans="3:3">
+      <c r="C1122" s="32" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1123" spans="3:3">
+      <c r="C1123" s="32" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1124" spans="3:3">
+      <c r="C1124" s="32" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1125" spans="3:3">
+      <c r="C1125" s="32" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1126" spans="3:3">
+      <c r="C1126" s="32" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1127" spans="3:3">
+      <c r="C1127" s="32" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1128" spans="3:3">
+      <c r="C1128" s="32"/>
+    </row>
+    <row r="1129" spans="3:3">
+      <c r="C1129" s="34" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1130" spans="3:3">
+      <c r="C1130" s="32" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1131" spans="3:3">
+      <c r="C1131" s="32" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1132" spans="3:3">
+      <c r="C1132" s="32" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1133" spans="3:3">
+      <c r="C1133" s="32" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1134" spans="3:3">
+      <c r="C1134" s="32" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1135" spans="3:3">
+      <c r="C1135" s="32" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1136" spans="3:3">
+      <c r="C1136" s="32" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="1121" spans="1:3">
-      <c r="C1121" s="32" t="s">
+    <row r="1137" spans="1:3">
+      <c r="C1137" s="32" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="1122" spans="1:3">
-      <c r="C1122" s="32" t="s">
+    <row r="1138" spans="1:3">
+      <c r="C1138" s="32" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="1123" spans="1:3">
-      <c r="C1123" s="32" t="s">
+    <row r="1139" spans="1:3">
+      <c r="C1139" s="32" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="1124" spans="1:3">
-      <c r="C1124" s="32"/>
-    </row>
-    <row r="1125" spans="1:3">
-      <c r="A1125" s="34" t="s">
+    <row r="1140" spans="1:3">
+      <c r="C1140" s="32"/>
+    </row>
+    <row r="1141" spans="1:3">
+      <c r="A1141" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="B1125" s="33" t="s">
+      <c r="B1141" s="33" t="s">
         <v>1417</v>
       </c>
-      <c r="C1125" s="34" t="s">
+      <c r="C1141" s="34" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="1126" spans="1:3">
-      <c r="C1126" s="34" t="s">
+    <row r="1142" spans="1:3">
+      <c r="C1142" s="34" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="1127" spans="1:3">
-      <c r="C1127" s="32" t="s">
+    <row r="1143" spans="1:3">
+      <c r="C1143" s="32" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="1128" spans="1:3">
-      <c r="C1128" s="32"/>
-    </row>
-    <row r="1129" spans="1:3">
-      <c r="C1129" s="34" t="s">
+    <row r="1144" spans="1:3">
+      <c r="C1144" s="32"/>
+    </row>
+    <row r="1145" spans="1:3">
+      <c r="C1145" s="34" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="1130" spans="1:3">
-      <c r="C1130" s="32" t="s">
+    <row r="1146" spans="1:3">
+      <c r="C1146" s="32" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="1131" spans="1:3">
-      <c r="C1131" s="32" t="s">
+    <row r="1147" spans="1:3">
+      <c r="C1147" s="32" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="1132" spans="1:3">
-      <c r="C1132" s="32" t="s">
+    <row r="1148" spans="1:3">
+      <c r="C1148" s="32" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="1133" spans="1:3">
-      <c r="C1133" s="32"/>
-    </row>
-    <row r="1134" spans="1:3">
-      <c r="C1134" s="34" t="s">
+    <row r="1149" spans="1:3">
+      <c r="C1149" s="32"/>
+    </row>
+    <row r="1150" spans="1:3">
+      <c r="C1150" s="34" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="1135" spans="1:3">
-      <c r="C1135" s="32" t="s">
+    <row r="1151" spans="1:3">
+      <c r="C1151" s="32" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1136" spans="1:3">
-      <c r="C1136" s="32" t="s">
+    <row r="1152" spans="1:3">
+      <c r="C1152" s="32" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="1137" spans="1:4">
-      <c r="C1137" s="32" t="s">
+    <row r="1153" spans="1:4">
+      <c r="C1153" s="32" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1138" spans="1:4">
-      <c r="C1138" s="32"/>
-    </row>
-    <row r="1139" spans="1:4">
-      <c r="C1139" s="34" t="s">
+    <row r="1154" spans="1:4">
+      <c r="C1154" s="32"/>
+    </row>
+    <row r="1155" spans="1:4">
+      <c r="C1155" s="34" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="1140" spans="1:4">
-      <c r="C1140" s="32" t="s">
+    <row r="1156" spans="1:4">
+      <c r="C1156" s="32" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1141" spans="1:4">
-      <c r="C1141" s="32" t="s">
+    <row r="1157" spans="1:4">
+      <c r="C1157" s="32" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="1142" spans="1:4">
-      <c r="C1142" s="32" t="s">
+    <row r="1158" spans="1:4">
+      <c r="C1158" s="32" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1143" spans="1:4">
-      <c r="C1143" s="32"/>
-    </row>
-    <row r="1144" spans="1:4" ht="15.5">
-      <c r="A1144" s="90" t="s">
+    <row r="1159" spans="1:4">
+      <c r="C1159" s="32"/>
+    </row>
+    <row r="1160" spans="1:4" ht="15.5">
+      <c r="A1160" s="90" t="s">
         <v>822</v>
       </c>
-      <c r="B1144" s="90"/>
-      <c r="C1144" s="90"/>
-    </row>
-    <row r="1145" spans="1:4" s="80" customFormat="1" ht="15.5">
-      <c r="A1145" s="82"/>
-      <c r="B1145" s="82"/>
-      <c r="C1145" s="82"/>
-    </row>
-    <row r="1146" spans="1:4" s="36" customFormat="1">
-      <c r="A1146" s="34" t="s">
+      <c r="B1160" s="90"/>
+      <c r="C1160" s="90"/>
+    </row>
+    <row r="1161" spans="1:4" s="80" customFormat="1" ht="15.5">
+      <c r="A1161" s="82"/>
+      <c r="B1161" s="82"/>
+      <c r="C1161" s="82"/>
+    </row>
+    <row r="1162" spans="1:4" s="36" customFormat="1">
+      <c r="A1162" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="B1146" s="33" t="s">
+      <c r="B1162" s="33" t="s">
         <v>1427</v>
       </c>
-      <c r="C1146" s="34" t="s">
+      <c r="C1162" s="34" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="1147" spans="1:4">
-      <c r="B1147" s="41"/>
-      <c r="C1147" s="34" t="s">
+    <row r="1163" spans="1:4">
+      <c r="B1163" s="41"/>
+      <c r="C1163" s="34" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="1148" spans="1:4">
-      <c r="B1148" s="41"/>
-      <c r="C1148" s="34"/>
-    </row>
-    <row r="1149" spans="1:4">
-      <c r="B1149" s="41"/>
-      <c r="C1149" s="34" t="s">
+    <row r="1164" spans="1:4">
+      <c r="B1164" s="41"/>
+      <c r="C1164" s="34"/>
+    </row>
+    <row r="1165" spans="1:4">
+      <c r="B1165" s="41"/>
+      <c r="C1165" s="34" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="1150" spans="1:4">
-      <c r="B1150" s="41"/>
-      <c r="C1150" s="32" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D1150" s="36"/>
-    </row>
-    <row r="1151" spans="1:4">
-      <c r="B1151" s="41"/>
-      <c r="C1151" s="32" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:4">
-      <c r="B1152" s="41"/>
-      <c r="C1152" s="32" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="1153" spans="2:3">
-      <c r="B1153" s="41"/>
-      <c r="C1153" s="32" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="1154" spans="2:3">
-      <c r="B1154" s="41"/>
-      <c r="C1154" s="32" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1155" spans="2:3">
-      <c r="B1155" s="41"/>
-      <c r="C1155" s="32" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="1156" spans="2:3">
-      <c r="B1156" s="41"/>
-    </row>
-    <row r="1157" spans="2:3">
-      <c r="B1157" s="41"/>
-      <c r="C1157" s="34" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="1158" spans="2:3">
-      <c r="B1158" s="41"/>
-      <c r="C1158" s="32" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="1159" spans="2:3">
-      <c r="B1159" s="41"/>
-      <c r="C1159" s="32" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="1160" spans="2:3">
-      <c r="B1160" s="41"/>
-      <c r="C1160" s="32" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="1161" spans="2:3">
-      <c r="B1161" s="41"/>
-      <c r="C1161" s="32" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="1162" spans="2:3">
-      <c r="B1162" s="41"/>
-      <c r="C1162" s="32" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="1163" spans="2:3">
-      <c r="B1163" s="41"/>
-      <c r="C1163" s="32" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="1164" spans="2:3">
-      <c r="B1164" s="41"/>
-      <c r="C1164" s="32" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="1165" spans="2:3">
-      <c r="B1165" s="41"/>
-      <c r="C1165" s="32" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="1166" spans="2:3">
+    <row r="1166" spans="1:4">
       <c r="B1166" s="41"/>
       <c r="C1166" s="32" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="1167" spans="2:3">
+        <v>1228</v>
+      </c>
+      <c r="D1166" s="36"/>
+    </row>
+    <row r="1167" spans="1:4">
       <c r="B1167" s="41"/>
-    </row>
-    <row r="1168" spans="2:3">
+      <c r="C1167" s="32" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4">
       <c r="B1168" s="41"/>
-      <c r="C1168" s="34" t="s">
-        <v>1242</v>
+      <c r="C1168" s="32" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="1169" spans="2:3">
       <c r="B1169" s="41"/>
       <c r="C1169" s="32" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1170" spans="2:3">
       <c r="B1170" s="41"/>
       <c r="C1170" s="32" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1171" spans="2:3">
       <c r="B1171" s="41"/>
       <c r="C1171" s="32" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1172" spans="2:3">
       <c r="B1172" s="41"/>
-      <c r="C1172" s="32" t="s">
-        <v>1246</v>
-      </c>
     </row>
     <row r="1173" spans="2:3">
       <c r="B1173" s="41"/>
-      <c r="C1173" s="32" t="s">
-        <v>1247</v>
+      <c r="C1173" s="34" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="1174" spans="2:3">
       <c r="B1174" s="41"/>
       <c r="C1174" s="32" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1175" spans="2:3">
       <c r="B1175" s="41"/>
       <c r="C1175" s="32" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1176" spans="2:3">
       <c r="B1176" s="41"/>
       <c r="C1176" s="32" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1177" spans="2:3">
       <c r="B1177" s="41"/>
       <c r="C1177" s="32" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1178" spans="2:3">
       <c r="B1178" s="41"/>
+      <c r="C1178" s="32" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="1179" spans="2:3">
       <c r="B1179" s="41"/>
-      <c r="C1179" s="34" t="s">
-        <v>1251</v>
+      <c r="C1179" s="32" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="1180" spans="2:3">
       <c r="B1180" s="41"/>
       <c r="C1180" s="32" t="s">
-        <v>829</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1181" spans="2:3">
       <c r="B1181" s="41"/>
       <c r="C1181" s="32" t="s">
-        <v>1252</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1182" spans="2:3">
       <c r="B1182" s="41"/>
       <c r="C1182" s="32" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1183" spans="2:3">
       <c r="B1183" s="41"/>
-      <c r="C1183" s="32" t="s">
-        <v>1254</v>
-      </c>
     </row>
     <row r="1184" spans="2:3">
       <c r="B1184" s="41"/>
-      <c r="C1184" s="32" t="s">
-        <v>1255</v>
+      <c r="C1184" s="34" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="1185" spans="2:3">
       <c r="B1185" s="41"/>
       <c r="C1185" s="32" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1186" spans="2:3">
       <c r="B1186" s="41"/>
       <c r="C1186" s="32" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1187" spans="2:3">
       <c r="B1187" s="41"/>
       <c r="C1187" s="32" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1188" spans="2:3">
       <c r="B1188" s="41"/>
       <c r="C1188" s="32" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1189" spans="2:3">
       <c r="B1189" s="41"/>
       <c r="C1189" s="32" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1190" spans="2:3">
       <c r="B1190" s="41"/>
+      <c r="C1190" s="32" t="s">
+        <v>1248</v>
+      </c>
     </row>
     <row r="1191" spans="2:3">
       <c r="B1191" s="41"/>
-      <c r="C1191" s="34" t="s">
-        <v>1260</v>
+      <c r="C1191" s="32" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="1192" spans="2:3">
       <c r="B1192" s="41"/>
       <c r="C1192" s="32" t="s">
-        <v>1261</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1193" spans="2:3">
       <c r="B1193" s="41"/>
       <c r="C1193" s="32" t="s">
-        <v>1262</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1194" spans="2:3">
       <c r="B1194" s="41"/>
-      <c r="C1194" s="32" t="s">
-        <v>1263</v>
-      </c>
     </row>
     <row r="1195" spans="2:3">
       <c r="B1195" s="41"/>
-      <c r="C1195" s="32" t="s">
-        <v>1264</v>
+      <c r="C1195" s="34" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="1196" spans="2:3">
       <c r="B1196" s="41"/>
       <c r="C1196" s="32" t="s">
-        <v>1265</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1197" spans="2:3">
       <c r="B1197" s="41"/>
       <c r="C1197" s="32" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1198" spans="2:3">
       <c r="B1198" s="41"/>
       <c r="C1198" s="32" t="s">
-        <v>1267</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1199" spans="2:3">
       <c r="B1199" s="41"/>
       <c r="C1199" s="32" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1200" spans="2:3">
       <c r="B1200" s="41"/>
       <c r="C1200" s="32" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:3">
+      <c r="B1201" s="41"/>
+      <c r="C1201" s="32" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:3">
+      <c r="B1202" s="41"/>
+      <c r="C1202" s="32" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1203" spans="2:3">
+      <c r="B1203" s="41"/>
+      <c r="C1203" s="32" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:3">
+      <c r="B1204" s="41"/>
+      <c r="C1204" s="32" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:3">
+      <c r="B1205" s="41"/>
+      <c r="C1205" s="32" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="1201" spans="1:3">
-      <c r="B1201" s="41"/>
-      <c r="C1201" s="32"/>
-    </row>
-    <row r="1202" spans="1:3" ht="15.5">
-      <c r="A1202" s="34" t="s">
+    <row r="1206" spans="2:3">
+      <c r="B1206" s="41"/>
+    </row>
+    <row r="1207" spans="2:3">
+      <c r="B1207" s="41"/>
+      <c r="C1207" s="34" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1208" spans="2:3">
+      <c r="B1208" s="41"/>
+      <c r="C1208" s="32" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1209" spans="2:3">
+      <c r="B1209" s="41"/>
+      <c r="C1209" s="32" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1210" spans="2:3">
+      <c r="B1210" s="41"/>
+      <c r="C1210" s="32" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:3">
+      <c r="B1211" s="41"/>
+      <c r="C1211" s="32" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1212" spans="2:3">
+      <c r="B1212" s="41"/>
+      <c r="C1212" s="32" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1213" spans="2:3">
+      <c r="B1213" s="41"/>
+      <c r="C1213" s="32" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1214" spans="2:3">
+      <c r="B1214" s="41"/>
+      <c r="C1214" s="32" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1215" spans="2:3">
+      <c r="B1215" s="41"/>
+      <c r="C1215" s="32" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1216" spans="2:3">
+      <c r="B1216" s="41"/>
+      <c r="C1216" s="32" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3">
+      <c r="B1217" s="41"/>
+      <c r="C1217" s="32"/>
+    </row>
+    <row r="1218" spans="1:3" ht="15.5">
+      <c r="A1218" s="34" t="s">
         <v>615</v>
       </c>
-      <c r="B1202" s="58"/>
-      <c r="C1202" s="34" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:3" ht="15.5">
-      <c r="B1203" s="58"/>
-      <c r="C1203" s="26" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:3" ht="15.5">
-      <c r="A1204" s="83"/>
-      <c r="B1204" s="58"/>
-      <c r="C1204" s="29"/>
-    </row>
-    <row r="1205" spans="1:3" ht="15.5">
-      <c r="B1205" s="58"/>
-      <c r="C1205" s="26" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:3" ht="15.5">
-      <c r="A1206" s="83"/>
-      <c r="B1206" s="58"/>
-      <c r="C1206" s="29" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:3" ht="15.5">
-      <c r="A1207" s="83"/>
-      <c r="B1207" s="58"/>
-      <c r="C1207" s="29" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:3" ht="15.5">
-      <c r="A1208" s="83"/>
-      <c r="B1208" s="58"/>
-      <c r="C1208" s="29" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:3" ht="15.5">
-      <c r="A1209" s="83"/>
-      <c r="B1209" s="58"/>
-      <c r="C1209" s="29" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:3" ht="15.5">
-      <c r="A1210" s="83"/>
-      <c r="B1210" s="58"/>
-      <c r="C1210" s="29" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:3" ht="15.5">
-      <c r="A1211" s="83"/>
-      <c r="B1211" s="58"/>
-      <c r="C1211" s="29" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:3" ht="15.5">
-      <c r="A1212" s="83"/>
-      <c r="B1212" s="58"/>
-      <c r="C1212" s="29" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:3" ht="15.5">
-      <c r="A1213" s="83"/>
-      <c r="B1213" s="58"/>
-      <c r="C1213" s="29" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:3" ht="15.5">
-      <c r="A1214" s="83"/>
-      <c r="B1214" s="58"/>
-      <c r="C1214" s="29" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:3" ht="15.5">
-      <c r="A1215" s="83"/>
-      <c r="B1215" s="58"/>
-      <c r="C1215" s="29" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:3" ht="15.5">
-      <c r="A1216" s="83"/>
-      <c r="B1216" s="58"/>
-      <c r="C1216" s="29"/>
-    </row>
-    <row r="1217" spans="1:3">
-      <c r="C1217" s="34" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:3">
-      <c r="A1218" s="34"/>
-      <c r="C1218" s="56" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:3">
-      <c r="A1219" s="34"/>
-      <c r="C1219" s="56" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:3">
-      <c r="A1220" s="34"/>
-      <c r="C1220" s="34"/>
-    </row>
-    <row r="1221" spans="1:3">
-      <c r="A1221" s="34"/>
-      <c r="C1221" s="34" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:3">
-      <c r="A1222" s="34"/>
-      <c r="C1222" s="56" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:3">
-      <c r="A1223" s="34"/>
-      <c r="C1223" s="56" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:3">
-      <c r="A1224" s="34"/>
-      <c r="C1224" s="34"/>
-    </row>
-    <row r="1225" spans="1:3">
-      <c r="A1225" s="34"/>
-      <c r="C1225" s="34" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:3">
-      <c r="A1226" s="34"/>
-      <c r="C1226" s="56" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:3">
-      <c r="A1227" s="34"/>
-      <c r="C1227" s="56" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:3">
-      <c r="A1228" s="34"/>
-      <c r="C1228" s="34"/>
-    </row>
-    <row r="1229" spans="1:3">
-      <c r="A1229" s="34"/>
-      <c r="C1229" s="34" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:3">
-      <c r="A1230" s="34"/>
-      <c r="C1230" s="56" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:3">
-      <c r="A1231" s="34"/>
-      <c r="C1231" s="56" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:3">
-      <c r="A1232" s="34"/>
-      <c r="C1232" s="34"/>
+      <c r="B1218" s="58"/>
+      <c r="C1218" s="34" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" ht="15.5">
+      <c r="B1219" s="58"/>
+      <c r="C1219" s="26" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" ht="15.5">
+      <c r="A1220" s="83"/>
+      <c r="B1220" s="58"/>
+      <c r="C1220" s="29"/>
+    </row>
+    <row r="1221" spans="1:3" ht="15.5">
+      <c r="B1221" s="58"/>
+      <c r="C1221" s="26" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" ht="15.5">
+      <c r="A1222" s="83"/>
+      <c r="B1222" s="58"/>
+      <c r="C1222" s="29" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" ht="15.5">
+      <c r="A1223" s="83"/>
+      <c r="B1223" s="58"/>
+      <c r="C1223" s="29" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" ht="15.5">
+      <c r="A1224" s="83"/>
+      <c r="B1224" s="58"/>
+      <c r="C1224" s="29" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" ht="15.5">
+      <c r="A1225" s="83"/>
+      <c r="B1225" s="58"/>
+      <c r="C1225" s="29" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" ht="15.5">
+      <c r="A1226" s="83"/>
+      <c r="B1226" s="58"/>
+      <c r="C1226" s="29" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" ht="15.5">
+      <c r="A1227" s="83"/>
+      <c r="B1227" s="58"/>
+      <c r="C1227" s="29" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" ht="15.5">
+      <c r="A1228" s="83"/>
+      <c r="B1228" s="58"/>
+      <c r="C1228" s="29" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" ht="15.5">
+      <c r="A1229" s="83"/>
+      <c r="B1229" s="58"/>
+      <c r="C1229" s="29" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" ht="15.5">
+      <c r="A1230" s="83"/>
+      <c r="B1230" s="58"/>
+      <c r="C1230" s="29" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" ht="15.5">
+      <c r="A1231" s="83"/>
+      <c r="B1231" s="58"/>
+      <c r="C1231" s="29" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" ht="15.5">
+      <c r="A1232" s="83"/>
+      <c r="B1232" s="58"/>
+      <c r="C1232" s="29"/>
     </row>
     <row r="1233" spans="1:3">
-      <c r="A1233" s="34"/>
       <c r="C1233" s="34" t="s">
-        <v>1990</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1234" spans="1:3">
       <c r="A1234" s="34"/>
       <c r="C1234" s="56" t="s">
-        <v>1991</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1235" spans="1:3">
       <c r="A1235" s="34"/>
       <c r="C1235" s="56" t="s">
-        <v>1992</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1236" spans="1:3">
@@ -25699,19 +25802,19 @@
     <row r="1237" spans="1:3">
       <c r="A1237" s="34"/>
       <c r="C1237" s="34" t="s">
-        <v>1993</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1238" spans="1:3">
       <c r="A1238" s="34"/>
       <c r="C1238" s="56" t="s">
-        <v>1994</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1239" spans="1:3">
       <c r="A1239" s="34"/>
       <c r="C1239" s="56" t="s">
-        <v>1995</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1240" spans="1:3">
@@ -25721,19 +25824,19 @@
     <row r="1241" spans="1:3">
       <c r="A1241" s="34"/>
       <c r="C1241" s="34" t="s">
-        <v>1650</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1242" spans="1:3">
       <c r="A1242" s="34"/>
       <c r="C1242" s="56" t="s">
-        <v>1996</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1243" spans="1:3">
       <c r="A1243" s="34"/>
       <c r="C1243" s="56" t="s">
-        <v>1997</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1244" spans="1:3">
@@ -25743,1656 +25846,1640 @@
     <row r="1245" spans="1:3">
       <c r="A1245" s="34"/>
       <c r="C1245" s="34" t="s">
-        <v>1998</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1246" spans="1:3">
       <c r="A1246" s="34"/>
       <c r="C1246" s="56" t="s">
-        <v>1999</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1247" spans="1:3">
       <c r="A1247" s="34"/>
       <c r="C1247" s="56" t="s">
-        <v>2000</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1248" spans="1:3">
       <c r="A1248" s="34"/>
       <c r="C1248" s="34"/>
     </row>
-    <row r="1249" spans="1:4">
+    <row r="1249" spans="1:3">
       <c r="A1249" s="34"/>
       <c r="C1249" s="34" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:4">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3">
       <c r="A1250" s="34"/>
       <c r="C1250" s="56" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:4">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3">
       <c r="A1251" s="34"/>
       <c r="C1251" s="56" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:4">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3">
       <c r="A1252" s="34"/>
       <c r="C1252" s="34"/>
     </row>
-    <row r="1253" spans="1:4">
+    <row r="1253" spans="1:3">
       <c r="A1253" s="34"/>
       <c r="C1253" s="34" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:4">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3">
       <c r="A1254" s="34"/>
       <c r="C1254" s="56" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:4">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3">
       <c r="A1255" s="34"/>
       <c r="C1255" s="56" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:4">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3">
       <c r="A1256" s="34"/>
       <c r="C1256" s="34"/>
     </row>
-    <row r="1257" spans="1:4">
+    <row r="1257" spans="1:3">
       <c r="A1257" s="34"/>
       <c r="C1257" s="34" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:4">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3">
       <c r="A1258" s="34"/>
       <c r="C1258" s="56" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:4">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3">
       <c r="A1259" s="34"/>
       <c r="C1259" s="56" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:4">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3">
       <c r="A1260" s="34"/>
       <c r="C1260" s="34"/>
     </row>
-    <row r="1261" spans="1:4">
+    <row r="1261" spans="1:3">
       <c r="A1261" s="34"/>
       <c r="C1261" s="34" t="s">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:4">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3">
       <c r="A1262" s="34"/>
       <c r="C1262" s="56" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:4">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3">
       <c r="A1263" s="34"/>
       <c r="C1263" s="56" t="s">
-        <v>2010</v>
-      </c>
-      <c r="D1263" s="20" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:4">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3">
       <c r="A1264" s="34"/>
-      <c r="C1264" s="56"/>
-    </row>
-    <row r="1265" spans="1:3" ht="15.5">
-      <c r="A1265" s="83"/>
-      <c r="B1265" s="58"/>
-      <c r="C1265" s="26" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:3" ht="15.5">
-      <c r="A1266" s="83"/>
-      <c r="B1266" s="58"/>
-      <c r="C1266" s="29" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:3" ht="15.5">
-      <c r="A1267" s="83"/>
-      <c r="B1267" s="58"/>
-      <c r="C1267" s="29" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:3" ht="15.5">
-      <c r="A1268" s="83"/>
-      <c r="B1268" s="58"/>
-      <c r="C1268" s="29"/>
-    </row>
-    <row r="1269" spans="1:3" ht="15.5">
-      <c r="A1269" s="83"/>
-      <c r="B1269" s="58"/>
-      <c r="C1269" s="29" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:3" ht="15.5">
-      <c r="A1270" s="83"/>
-      <c r="B1270" s="58"/>
-      <c r="C1270" s="29" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:3" ht="15.5">
-      <c r="A1271" s="83"/>
-      <c r="B1271" s="58"/>
-      <c r="C1271" s="29"/>
-    </row>
-    <row r="1272" spans="1:3" ht="15.5">
-      <c r="A1272" s="83"/>
-      <c r="B1272" s="58"/>
-      <c r="C1272" s="29" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:3" ht="15.5">
-      <c r="A1273" s="83"/>
-      <c r="B1273" s="58"/>
-      <c r="C1273" s="29" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:3" ht="15.5">
-      <c r="A1274" s="83"/>
-      <c r="B1274" s="58"/>
-      <c r="C1274" s="29"/>
-    </row>
-    <row r="1275" spans="1:3" ht="15.5">
-      <c r="A1275" s="83"/>
-      <c r="B1275" s="58"/>
-      <c r="C1275" s="29" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:3" ht="15.5">
-      <c r="A1276" s="83"/>
-      <c r="B1276" s="58"/>
-      <c r="C1276" s="29" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:3" ht="15.5">
-      <c r="A1277" s="83"/>
-      <c r="B1277" s="58"/>
-      <c r="C1277" s="29"/>
-    </row>
-    <row r="1278" spans="1:3" ht="15.5">
-      <c r="A1278" s="83"/>
-      <c r="B1278" s="58"/>
-      <c r="C1278" s="29" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:3" ht="15.5">
-      <c r="A1279" s="83"/>
-      <c r="B1279" s="58"/>
-      <c r="C1279" s="29" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:3" ht="15.5">
-      <c r="A1280" s="83"/>
-      <c r="B1280" s="58"/>
-      <c r="C1280" s="29"/>
+      <c r="C1264" s="34"/>
+    </row>
+    <row r="1265" spans="1:4">
+      <c r="A1265" s="34"/>
+      <c r="C1265" s="34" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4">
+      <c r="A1266" s="34"/>
+      <c r="C1266" s="56" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4">
+      <c r="A1267" s="34"/>
+      <c r="C1267" s="56" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4">
+      <c r="A1268" s="34"/>
+      <c r="C1268" s="34"/>
+    </row>
+    <row r="1269" spans="1:4">
+      <c r="A1269" s="34"/>
+      <c r="C1269" s="34" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4">
+      <c r="A1270" s="34"/>
+      <c r="C1270" s="56" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4">
+      <c r="A1271" s="34"/>
+      <c r="C1271" s="56" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4">
+      <c r="A1272" s="34"/>
+      <c r="C1272" s="34"/>
+    </row>
+    <row r="1273" spans="1:4">
+      <c r="A1273" s="34"/>
+      <c r="C1273" s="34" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4">
+      <c r="A1274" s="34"/>
+      <c r="C1274" s="56" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4">
+      <c r="A1275" s="34"/>
+      <c r="C1275" s="56" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4">
+      <c r="A1276" s="34"/>
+      <c r="C1276" s="34"/>
+    </row>
+    <row r="1277" spans="1:4">
+      <c r="A1277" s="34"/>
+      <c r="C1277" s="34" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4">
+      <c r="A1278" s="34"/>
+      <c r="C1278" s="56" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4">
+      <c r="A1279" s="34"/>
+      <c r="C1279" s="56" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D1279" s="20" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4">
+      <c r="A1280" s="34"/>
+      <c r="C1280" s="56"/>
     </row>
     <row r="1281" spans="1:3" ht="15.5">
       <c r="A1281" s="83"/>
       <c r="B1281" s="58"/>
-      <c r="C1281" s="29" t="s">
-        <v>1838</v>
+      <c r="C1281" s="26" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="1282" spans="1:3" ht="15.5">
       <c r="A1282" s="83"/>
       <c r="B1282" s="58"/>
       <c r="C1282" s="29" t="s">
-        <v>1839</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1283" spans="1:3" ht="15.5">
       <c r="A1283" s="83"/>
       <c r="B1283" s="58"/>
-      <c r="C1283" s="29"/>
+      <c r="C1283" s="29" t="s">
+        <v>1812</v>
+      </c>
     </row>
     <row r="1284" spans="1:3" ht="15.5">
       <c r="A1284" s="83"/>
       <c r="B1284" s="58"/>
-      <c r="C1284" s="29" t="s">
-        <v>1840</v>
-      </c>
+      <c r="C1284" s="29"/>
     </row>
     <row r="1285" spans="1:3" ht="15.5">
       <c r="A1285" s="83"/>
       <c r="B1285" s="58"/>
       <c r="C1285" s="29" t="s">
-        <v>1841</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1286" spans="1:3" ht="15.5">
       <c r="A1286" s="83"/>
       <c r="B1286" s="58"/>
-      <c r="C1286" s="29"/>
+      <c r="C1286" s="29" t="s">
+        <v>1814</v>
+      </c>
     </row>
     <row r="1287" spans="1:3" ht="15.5">
       <c r="A1287" s="83"/>
       <c r="B1287" s="58"/>
-      <c r="C1287" s="29" t="s">
-        <v>1842</v>
-      </c>
+      <c r="C1287" s="29"/>
     </row>
     <row r="1288" spans="1:3" ht="15.5">
       <c r="A1288" s="83"/>
       <c r="B1288" s="58"/>
       <c r="C1288" s="29" t="s">
-        <v>1843</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1289" spans="1:3" ht="15.5">
       <c r="A1289" s="83"/>
       <c r="B1289" s="58"/>
-      <c r="C1289" s="29"/>
+      <c r="C1289" s="29" t="s">
+        <v>1816</v>
+      </c>
     </row>
     <row r="1290" spans="1:3" ht="15.5">
       <c r="A1290" s="83"/>
       <c r="B1290" s="58"/>
-      <c r="C1290" s="29" t="s">
-        <v>1844</v>
-      </c>
+      <c r="C1290" s="29"/>
     </row>
     <row r="1291" spans="1:3" ht="15.5">
       <c r="A1291" s="83"/>
       <c r="B1291" s="58"/>
       <c r="C1291" s="29" t="s">
-        <v>1845</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1292" spans="1:3" ht="15.5">
       <c r="A1292" s="83"/>
       <c r="B1292" s="58"/>
-      <c r="C1292" s="29"/>
+      <c r="C1292" s="29" t="s">
+        <v>1818</v>
+      </c>
     </row>
     <row r="1293" spans="1:3" ht="15.5">
       <c r="A1293" s="83"/>
       <c r="B1293" s="58"/>
-      <c r="C1293" s="29" t="s">
-        <v>1846</v>
-      </c>
+      <c r="C1293" s="29"/>
     </row>
     <row r="1294" spans="1:3" ht="15.5">
       <c r="A1294" s="83"/>
       <c r="B1294" s="58"/>
       <c r="C1294" s="29" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:3" ht="14.4" customHeight="1">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" ht="15.5">
+      <c r="A1295" s="83"/>
       <c r="B1295" s="58"/>
-      <c r="C1295" s="40"/>
-    </row>
-    <row r="1296" spans="1:3" ht="14.4" customHeight="1">
+      <c r="C1295" s="29" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" ht="15.5">
+      <c r="A1296" s="83"/>
       <c r="B1296" s="58"/>
-      <c r="C1296" s="34" t="s">
-        <v>929</v>
-      </c>
+      <c r="C1296" s="29"/>
     </row>
     <row r="1297" spans="1:3" ht="15.5">
       <c r="A1297" s="83"/>
       <c r="B1297" s="58"/>
-      <c r="C1297" s="29"/>
-    </row>
-    <row r="1298" spans="1:3">
-      <c r="A1298" s="34" t="s">
+      <c r="C1297" s="29" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" ht="15.5">
+      <c r="A1298" s="83"/>
+      <c r="B1298" s="58"/>
+      <c r="C1298" s="29" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" ht="15.5">
+      <c r="A1299" s="83"/>
+      <c r="B1299" s="58"/>
+      <c r="C1299" s="29"/>
+    </row>
+    <row r="1300" spans="1:3" ht="15.5">
+      <c r="A1300" s="83"/>
+      <c r="B1300" s="58"/>
+      <c r="C1300" s="29" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" ht="15.5">
+      <c r="A1301" s="83"/>
+      <c r="B1301" s="58"/>
+      <c r="C1301" s="29" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" ht="15.5">
+      <c r="A1302" s="83"/>
+      <c r="B1302" s="58"/>
+      <c r="C1302" s="29"/>
+    </row>
+    <row r="1303" spans="1:3" ht="15.5">
+      <c r="A1303" s="83"/>
+      <c r="B1303" s="58"/>
+      <c r="C1303" s="29" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3" ht="15.5">
+      <c r="A1304" s="83"/>
+      <c r="B1304" s="58"/>
+      <c r="C1304" s="29" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3" ht="15.5">
+      <c r="A1305" s="83"/>
+      <c r="B1305" s="58"/>
+      <c r="C1305" s="29"/>
+    </row>
+    <row r="1306" spans="1:3" ht="15.5">
+      <c r="A1306" s="83"/>
+      <c r="B1306" s="58"/>
+      <c r="C1306" s="29" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" ht="15.5">
+      <c r="A1307" s="83"/>
+      <c r="B1307" s="58"/>
+      <c r="C1307" s="29" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" ht="15.5">
+      <c r="A1308" s="83"/>
+      <c r="B1308" s="58"/>
+      <c r="C1308" s="29"/>
+    </row>
+    <row r="1309" spans="1:3" ht="15.5">
+      <c r="A1309" s="83"/>
+      <c r="B1309" s="58"/>
+      <c r="C1309" s="29" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" ht="15.5">
+      <c r="A1310" s="83"/>
+      <c r="B1310" s="58"/>
+      <c r="C1310" s="29" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" ht="14.4" customHeight="1">
+      <c r="B1311" s="58"/>
+      <c r="C1311" s="40"/>
+    </row>
+    <row r="1312" spans="1:3" ht="14.4" customHeight="1">
+      <c r="B1312" s="58"/>
+      <c r="C1312" s="34" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" ht="15.5">
+      <c r="A1313" s="83"/>
+      <c r="B1313" s="58"/>
+      <c r="C1313" s="29"/>
+    </row>
+    <row r="1314" spans="1:3">
+      <c r="A1314" s="34" t="s">
         <v>1168</v>
       </c>
-      <c r="B1298" s="33" t="s">
+      <c r="B1314" s="33" t="s">
         <v>1454</v>
       </c>
-      <c r="C1298" s="34" t="s">
+      <c r="C1314" s="34" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="1299" spans="1:3">
-      <c r="A1299" s="34"/>
-      <c r="B1299" s="33"/>
-      <c r="C1299" s="34" t="s">
+    <row r="1315" spans="1:3">
+      <c r="A1315" s="34"/>
+      <c r="B1315" s="33"/>
+      <c r="C1315" s="34" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1300" spans="1:3">
-      <c r="A1300" s="34"/>
-      <c r="B1300" s="33"/>
-      <c r="C1300" s="34"/>
-    </row>
-    <row r="1301" spans="1:3">
-      <c r="A1301" s="34"/>
-      <c r="B1301" s="33"/>
-      <c r="C1301" s="34" t="s">
+    <row r="1316" spans="1:3">
+      <c r="A1316" s="34"/>
+      <c r="B1316" s="33"/>
+      <c r="C1316" s="34"/>
+    </row>
+    <row r="1317" spans="1:3">
+      <c r="A1317" s="34"/>
+      <c r="B1317" s="33"/>
+      <c r="C1317" s="34" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="1302" spans="1:3">
-      <c r="A1302" s="34"/>
-      <c r="B1302" s="33"/>
-      <c r="C1302" s="34"/>
-    </row>
-    <row r="1303" spans="1:3">
-      <c r="C1303" s="34" t="s">
+    <row r="1318" spans="1:3">
+      <c r="A1318" s="34"/>
+      <c r="B1318" s="33"/>
+      <c r="C1318" s="34"/>
+    </row>
+    <row r="1319" spans="1:3">
+      <c r="C1319" s="34" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1304" spans="1:3">
-      <c r="C1304" s="32" t="s">
+    <row r="1320" spans="1:3">
+      <c r="C1320" s="32" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="1305" spans="1:3">
-      <c r="C1305" s="32" t="s">
+    <row r="1321" spans="1:3">
+      <c r="C1321" s="32" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="1306" spans="1:3">
-      <c r="C1306" s="32" t="s">
+    <row r="1322" spans="1:3">
+      <c r="C1322" s="32" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="1307" spans="1:3">
-      <c r="C1307" s="32" t="s">
+    <row r="1323" spans="1:3">
+      <c r="C1323" s="32" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="1308" spans="1:3">
-      <c r="C1308" s="32" t="s">
+    <row r="1324" spans="1:3">
+      <c r="C1324" s="32" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="1309" spans="1:3">
-      <c r="C1309" s="32"/>
-    </row>
-    <row r="1310" spans="1:3">
-      <c r="C1310" s="34" t="s">
+    <row r="1325" spans="1:3">
+      <c r="C1325" s="32"/>
+    </row>
+    <row r="1326" spans="1:3">
+      <c r="C1326" s="34" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="1311" spans="1:3">
-      <c r="C1311" s="32" t="s">
+    <row r="1327" spans="1:3">
+      <c r="C1327" s="32" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="1312" spans="1:3">
-      <c r="C1312" s="32" t="s">
+    <row r="1328" spans="1:3">
+      <c r="C1328" s="32" t="s">
         <v>1177</v>
-      </c>
-    </row>
-    <row r="1313" spans="2:3">
-      <c r="C1313" s="32" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="1314" spans="2:3">
-      <c r="C1314" s="32" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="1315" spans="2:3">
-      <c r="C1315" s="32" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="1316" spans="2:3">
-      <c r="C1316" s="32" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1317" spans="2:3">
-      <c r="C1317" s="32" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="1318" spans="2:3">
-      <c r="C1318" s="32" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="1319" spans="2:3">
-      <c r="C1319" s="32" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1320" spans="2:3">
-      <c r="C1320" s="34"/>
-    </row>
-    <row r="1321" spans="2:3">
-      <c r="C1321" s="34" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="1322" spans="2:3">
-      <c r="C1322" s="32" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="1323" spans="2:3">
-      <c r="C1323" s="32" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1324" spans="2:3">
-      <c r="C1324" s="32" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="1325" spans="2:3">
-      <c r="C1325" s="32" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="1326" spans="2:3">
-      <c r="C1326" s="32" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="1327" spans="2:3">
-      <c r="C1327" s="32" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1328" spans="2:3">
-      <c r="B1328" s="20"/>
-      <c r="C1328" s="32" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="1329" spans="2:3">
       <c r="C1329" s="32" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1330" spans="2:3">
       <c r="C1330" s="32" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1331" spans="2:3">
       <c r="C1331" s="32" t="s">
-        <v>1195</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1332" spans="2:3">
       <c r="C1332" s="32" t="s">
-        <v>1196</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1333" spans="2:3">
       <c r="C1333" s="32" t="s">
-        <v>1197</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1334" spans="2:3">
-      <c r="C1334" s="34"/>
-    </row>
-    <row r="1335" spans="2:3" ht="14.4" customHeight="1">
-      <c r="B1335" s="58"/>
-      <c r="C1335" s="40" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="1336" spans="2:3" ht="14.4" customHeight="1">
-      <c r="B1336" s="30"/>
+      <c r="C1334" s="32" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1335" spans="2:3">
+      <c r="C1335" s="32" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1336" spans="2:3">
       <c r="C1336" s="34"/>
     </row>
-    <row r="1337" spans="2:3" ht="14.4" customHeight="1">
-      <c r="B1337" s="30"/>
+    <row r="1337" spans="2:3">
       <c r="C1337" s="34" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1338" spans="2:3">
-      <c r="C1338" s="34"/>
+      <c r="C1338" s="32" t="s">
+        <v>1186</v>
+      </c>
     </row>
     <row r="1339" spans="2:3">
-      <c r="C1339" s="34" t="s">
-        <v>1200</v>
+      <c r="C1339" s="32" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="1340" spans="2:3">
       <c r="C1340" s="32" t="s">
-        <v>1100</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1341" spans="2:3">
       <c r="C1341" s="32" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1342" spans="2:3">
       <c r="C1342" s="32" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1343" spans="2:3">
       <c r="C1343" s="32" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1344" spans="2:3">
+      <c r="B1344" s="20"/>
       <c r="C1344" s="32" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="1345" spans="3:3">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1345" spans="2:3">
       <c r="C1345" s="32" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="1346" spans="3:3">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1346" spans="2:3">
       <c r="C1346" s="32" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="1347" spans="3:3">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1347" spans="2:3">
       <c r="C1347" s="32" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="1348" spans="3:3">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1348" spans="2:3">
       <c r="C1348" s="32" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="1349" spans="3:3">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1349" spans="2:3">
       <c r="C1349" s="32" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="1350" spans="3:3">
-      <c r="C1350" s="32" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="1351" spans="3:3">
-      <c r="C1351" s="32" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="1352" spans="3:3">
-      <c r="C1352" s="32" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="1353" spans="3:3">
-      <c r="C1353" s="32" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1354" spans="3:3">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1350" spans="2:3">
+      <c r="C1350" s="34"/>
+    </row>
+    <row r="1351" spans="2:3" ht="14.4" customHeight="1">
+      <c r="B1351" s="58"/>
+      <c r="C1351" s="40" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1352" spans="2:3" ht="14.4" customHeight="1">
+      <c r="B1352" s="30"/>
+      <c r="C1352" s="34"/>
+    </row>
+    <row r="1353" spans="2:3" ht="14.4" customHeight="1">
+      <c r="B1353" s="30"/>
+      <c r="C1353" s="34" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1354" spans="2:3">
       <c r="C1354" s="34"/>
     </row>
-    <row r="1355" spans="3:3">
+    <row r="1355" spans="2:3">
       <c r="C1355" s="34" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="1356" spans="3:3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1356" spans="2:3">
       <c r="C1356" s="32" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="1357" spans="3:3">
+    <row r="1357" spans="2:3">
       <c r="C1357" s="32" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="1358" spans="3:3">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1358" spans="2:3">
       <c r="C1358" s="32" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="1359" spans="3:3">
+    <row r="1359" spans="2:3">
       <c r="C1359" s="32" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1360" spans="2:3">
+      <c r="C1360" s="32" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1361" spans="3:3">
+      <c r="C1361" s="32" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1362" spans="3:3">
+      <c r="C1362" s="32" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1363" spans="3:3">
+      <c r="C1363" s="32" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1364" spans="3:3">
+      <c r="C1364" s="32" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1365" spans="3:3">
+      <c r="C1365" s="32" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1366" spans="3:3">
+      <c r="C1366" s="32" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1367" spans="3:3">
+      <c r="C1367" s="32" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1368" spans="3:3">
+      <c r="C1368" s="32" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1369" spans="3:3">
+      <c r="C1369" s="32" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1370" spans="3:3">
+      <c r="C1370" s="34"/>
+    </row>
+    <row r="1371" spans="3:3">
+      <c r="C1371" s="34" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1372" spans="3:3">
+      <c r="C1372" s="32" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1373" spans="3:3">
+      <c r="C1373" s="32" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1374" spans="3:3">
+      <c r="C1374" s="32" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1375" spans="3:3">
+      <c r="C1375" s="32" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="1360" spans="3:3">
-      <c r="C1360" s="32" t="s">
+    <row r="1376" spans="3:3">
+      <c r="C1376" s="32" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="1361" spans="2:3">
-      <c r="C1361" s="32" t="s">
+    <row r="1377" spans="2:3">
+      <c r="C1377" s="32" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="1362" spans="2:3">
-      <c r="C1362" s="32" t="s">
+    <row r="1378" spans="2:3">
+      <c r="C1378" s="32" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="1363" spans="2:3">
-      <c r="C1363" s="32" t="s">
+    <row r="1379" spans="2:3">
+      <c r="C1379" s="32" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="1364" spans="2:3">
-      <c r="C1364" s="32" t="s">
+    <row r="1380" spans="2:3">
+      <c r="C1380" s="32" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="1365" spans="2:3">
-      <c r="C1365" s="32" t="s">
+    <row r="1381" spans="2:3">
+      <c r="C1381" s="32" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="1366" spans="2:3">
-      <c r="C1366" s="32" t="s">
+    <row r="1382" spans="2:3">
+      <c r="C1382" s="32" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="1367" spans="2:3">
-      <c r="C1367" s="34"/>
-    </row>
-    <row r="1368" spans="2:3">
-      <c r="C1368" s="34" t="s">
+    <row r="1383" spans="2:3">
+      <c r="C1383" s="34"/>
+    </row>
+    <row r="1384" spans="2:3">
+      <c r="C1384" s="34" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="1369" spans="2:3">
-      <c r="C1369" s="32" t="s">
+    <row r="1385" spans="2:3">
+      <c r="C1385" s="32" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="1370" spans="2:3">
-      <c r="C1370" s="32" t="s">
+    <row r="1386" spans="2:3">
+      <c r="C1386" s="32" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="1371" spans="2:3">
-      <c r="C1371" s="32" t="s">
+    <row r="1387" spans="2:3">
+      <c r="C1387" s="32" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="1372" spans="2:3">
-      <c r="C1372" s="32" t="s">
+    <row r="1388" spans="2:3">
+      <c r="C1388" s="32" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="1373" spans="2:3">
-      <c r="C1373" s="32" t="s">
+    <row r="1389" spans="2:3">
+      <c r="C1389" s="32" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="1374" spans="2:3">
-      <c r="C1374" s="32" t="s">
+    <row r="1390" spans="2:3">
+      <c r="C1390" s="32" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="1375" spans="2:3">
-      <c r="B1375" s="20"/>
-      <c r="C1375" s="32" t="s">
+    <row r="1391" spans="2:3">
+      <c r="B1391" s="20"/>
+      <c r="C1391" s="32" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="1376" spans="2:3">
-      <c r="C1376" s="32" t="s">
+    <row r="1392" spans="2:3">
+      <c r="C1392" s="32" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="1377" spans="1:3">
-      <c r="C1377" s="32" t="s">
+    <row r="1393" spans="1:3">
+      <c r="C1393" s="32" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="1378" spans="1:3">
-      <c r="C1378" s="32" t="s">
+    <row r="1394" spans="1:3">
+      <c r="C1394" s="32" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="1379" spans="1:3">
-      <c r="C1379" s="32" t="s">
+    <row r="1395" spans="1:3">
+      <c r="C1395" s="32" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="1380" spans="1:3">
-      <c r="C1380" s="32" t="s">
+    <row r="1396" spans="1:3">
+      <c r="C1396" s="32" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="1381" spans="1:3">
-      <c r="C1381" s="32" t="s">
+    <row r="1397" spans="1:3">
+      <c r="C1397" s="32" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="1382" spans="1:3">
-      <c r="C1382" s="32" t="s">
+    <row r="1398" spans="1:3">
+      <c r="C1398" s="32" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="1383" spans="1:3">
-      <c r="C1383" s="32" t="s">
+    <row r="1399" spans="1:3">
+      <c r="C1399" s="32" t="s">
         <v>1167</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:3">
-      <c r="A1384" s="34"/>
-      <c r="C1384" s="34"/>
-    </row>
-    <row r="1385" spans="1:3">
-      <c r="A1385" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="B1385" s="33" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C1385" s="34" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:3">
-      <c r="A1386" s="34"/>
-      <c r="C1386" s="32" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:3">
-      <c r="A1387" s="34"/>
-      <c r="C1387" s="32" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:3">
-      <c r="A1388" s="34"/>
-      <c r="C1388" s="59"/>
-    </row>
-    <row r="1389" spans="1:3">
-      <c r="A1389" s="34"/>
-      <c r="C1389" s="34" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:3">
-      <c r="A1390" s="34"/>
-      <c r="C1390" s="32" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:3">
-      <c r="A1391" s="34"/>
-      <c r="C1391" s="59"/>
-    </row>
-    <row r="1392" spans="1:3">
-      <c r="A1392" s="34"/>
-      <c r="C1392" s="34" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:3">
-      <c r="A1393" s="34"/>
-      <c r="C1393" s="32" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:3">
-      <c r="A1394" s="34"/>
-      <c r="C1394" s="32" t="s">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:3">
-      <c r="A1395" s="34"/>
-      <c r="C1395" s="59"/>
-    </row>
-    <row r="1396" spans="1:3">
-      <c r="A1396" s="34"/>
-      <c r="C1396" s="34" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:3">
-      <c r="A1397" s="34"/>
-      <c r="C1397" s="32" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:3">
-      <c r="A1398" s="34"/>
-      <c r="C1398" s="32" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:3">
-      <c r="A1399" s="34"/>
-      <c r="C1399" s="32" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="1400" spans="1:3">
       <c r="A1400" s="34"/>
-      <c r="C1400" s="32"/>
+      <c r="C1400" s="34"/>
     </row>
     <row r="1401" spans="1:3">
-      <c r="A1401" s="34"/>
+      <c r="A1401" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1401" s="33" t="s">
+        <v>1470</v>
+      </c>
       <c r="C1401" s="34" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1402" spans="1:3">
       <c r="A1402" s="34"/>
       <c r="C1402" s="32" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1403" spans="1:3">
       <c r="A1403" s="34"/>
       <c r="C1403" s="32" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
       <c r="A1404" s="34"/>
-      <c r="C1404" s="32" t="s">
-        <v>1639</v>
-      </c>
+      <c r="C1404" s="59"/>
     </row>
     <row r="1405" spans="1:3">
       <c r="A1405" s="34"/>
-      <c r="C1405" s="59"/>
+      <c r="C1405" s="34" t="s">
+        <v>1647</v>
+      </c>
     </row>
     <row r="1406" spans="1:3">
       <c r="A1406" s="34"/>
-      <c r="C1406" s="34" t="s">
-        <v>1643</v>
+      <c r="C1406" s="32" t="s">
+        <v>1631</v>
       </c>
     </row>
     <row r="1407" spans="1:3">
       <c r="A1407" s="34"/>
-      <c r="C1407" s="32" t="s">
-        <v>1640</v>
-      </c>
+      <c r="C1407" s="59"/>
     </row>
     <row r="1408" spans="1:3">
       <c r="A1408" s="34"/>
-      <c r="C1408" s="32" t="s">
-        <v>1641</v>
+      <c r="C1408" s="34" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="1409" spans="1:3">
       <c r="A1409" s="34"/>
-      <c r="C1409" s="34"/>
+      <c r="C1409" s="32" t="s">
+        <v>1632</v>
+      </c>
     </row>
     <row r="1410" spans="1:3">
       <c r="A1410" s="34"/>
-      <c r="C1410" s="34" t="s">
-        <v>1959</v>
+      <c r="C1410" s="32" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="1411" spans="1:3">
       <c r="A1411" s="34"/>
-      <c r="C1411" s="34" t="s">
-        <v>911</v>
-      </c>
+      <c r="C1411" s="59"/>
     </row>
     <row r="1412" spans="1:3">
       <c r="A1412" s="34"/>
-      <c r="C1412" s="34"/>
+      <c r="C1412" s="34" t="s">
+        <v>1645</v>
+      </c>
     </row>
     <row r="1413" spans="1:3">
       <c r="A1413" s="34"/>
-      <c r="C1413" s="34" t="s">
-        <v>1960</v>
+      <c r="C1413" s="32" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
       <c r="A1414" s="34"/>
-      <c r="C1414" s="56" t="s">
-        <v>829</v>
+      <c r="C1414" s="32" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1415" spans="1:3">
       <c r="A1415" s="34"/>
-      <c r="C1415" s="56" t="s">
-        <v>1961</v>
+      <c r="C1415" s="32" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="1416" spans="1:3">
       <c r="A1416" s="34"/>
-      <c r="C1416" s="56" t="s">
-        <v>1962</v>
-      </c>
+      <c r="C1416" s="32"/>
     </row>
     <row r="1417" spans="1:3">
       <c r="A1417" s="34"/>
-      <c r="C1417" s="56" t="s">
-        <v>1963</v>
+      <c r="C1417" s="34" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="1418" spans="1:3">
       <c r="A1418" s="34"/>
-      <c r="C1418" s="56" t="s">
-        <v>1964</v>
+      <c r="C1418" s="32" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="1419" spans="1:3">
       <c r="A1419" s="34"/>
-      <c r="C1419" s="56" t="s">
-        <v>1965</v>
+      <c r="C1419" s="32" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="1420" spans="1:3">
       <c r="A1420" s="34"/>
-      <c r="C1420" s="56" t="s">
-        <v>834</v>
+      <c r="C1420" s="32" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="1421" spans="1:3">
       <c r="A1421" s="34"/>
-      <c r="C1421" s="34"/>
+      <c r="C1421" s="59"/>
     </row>
     <row r="1422" spans="1:3">
       <c r="A1422" s="34"/>
       <c r="C1422" s="34" t="s">
-        <v>1966</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1423" spans="1:3">
       <c r="A1423" s="34"/>
-      <c r="C1423" s="56" t="s">
-        <v>829</v>
+      <c r="C1423" s="32" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="1424" spans="1:3">
       <c r="A1424" s="34"/>
-      <c r="C1424" s="56" t="s">
-        <v>1967</v>
+      <c r="C1424" s="32" t="s">
+        <v>1641</v>
       </c>
     </row>
     <row r="1425" spans="1:3">
       <c r="A1425" s="34"/>
-      <c r="C1425" s="56" t="s">
-        <v>1968</v>
-      </c>
+      <c r="C1425" s="34"/>
     </row>
     <row r="1426" spans="1:3">
       <c r="A1426" s="34"/>
-      <c r="C1426" s="56" t="s">
-        <v>1969</v>
+      <c r="C1426" s="34" t="s">
+        <v>1942</v>
       </c>
     </row>
     <row r="1427" spans="1:3">
       <c r="A1427" s="34"/>
-      <c r="C1427" s="56" t="s">
-        <v>1970</v>
+      <c r="C1427" s="34" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="1428" spans="1:3">
       <c r="A1428" s="34"/>
-      <c r="C1428" s="56" t="s">
-        <v>1971</v>
-      </c>
+      <c r="C1428" s="34"/>
     </row>
     <row r="1429" spans="1:3">
       <c r="A1429" s="34"/>
-      <c r="C1429" s="56" t="s">
-        <v>834</v>
+      <c r="C1429" s="34" t="s">
+        <v>1943</v>
       </c>
     </row>
     <row r="1430" spans="1:3">
       <c r="A1430" s="34"/>
-      <c r="C1430" s="34"/>
+      <c r="C1430" s="56" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="1431" spans="1:3">
-      <c r="A1431" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1431" s="33" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C1431" s="34" t="s">
-        <v>1848</v>
+      <c r="A1431" s="34"/>
+      <c r="C1431" s="56" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="1432" spans="1:3">
       <c r="A1432" s="34"/>
-      <c r="B1432" s="33"/>
-      <c r="C1432" s="34" t="s">
-        <v>911</v>
+      <c r="C1432" s="56" t="s">
+        <v>1945</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
       <c r="A1433" s="34"/>
-      <c r="B1433" s="33"/>
-      <c r="C1433" s="34"/>
+      <c r="C1433" s="56" t="s">
+        <v>1946</v>
+      </c>
     </row>
     <row r="1434" spans="1:3">
       <c r="A1434" s="34"/>
-      <c r="B1434" s="33"/>
-      <c r="C1434" s="34" t="s">
-        <v>1849</v>
+      <c r="C1434" s="56" t="s">
+        <v>1947</v>
       </c>
     </row>
     <row r="1435" spans="1:3">
       <c r="A1435" s="34"/>
-      <c r="B1435" s="33"/>
       <c r="C1435" s="56" t="s">
-        <v>829</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1436" spans="1:3">
       <c r="A1436" s="34"/>
-      <c r="B1436" s="33"/>
       <c r="C1436" s="56" t="s">
-        <v>1881</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1437" spans="1:3">
       <c r="A1437" s="34"/>
-      <c r="B1437" s="33"/>
-      <c r="C1437" s="56" t="s">
-        <v>1882</v>
-      </c>
+      <c r="C1437" s="34"/>
     </row>
     <row r="1438" spans="1:3">
       <c r="A1438" s="34"/>
-      <c r="B1438" s="33"/>
-      <c r="C1438" s="56" t="s">
-        <v>1850</v>
+      <c r="C1438" s="34" t="s">
+        <v>1949</v>
       </c>
     </row>
     <row r="1439" spans="1:3">
       <c r="A1439" s="34"/>
-      <c r="B1439" s="33"/>
       <c r="C1439" s="56" t="s">
-        <v>1883</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1440" spans="1:3">
       <c r="A1440" s="34"/>
-      <c r="B1440" s="33"/>
       <c r="C1440" s="56" t="s">
-        <v>1884</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1441" spans="1:3">
       <c r="A1441" s="34"/>
-      <c r="B1441" s="33"/>
       <c r="C1441" s="56" t="s">
-        <v>1885</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
       <c r="A1442" s="34"/>
-      <c r="B1442" s="33"/>
       <c r="C1442" s="56" t="s">
-        <v>834</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1443" spans="1:3">
       <c r="A1443" s="34"/>
-      <c r="B1443" s="33"/>
-      <c r="C1443" s="34"/>
+      <c r="C1443" s="56" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="1444" spans="1:3">
       <c r="A1444" s="34"/>
-      <c r="B1444" s="33"/>
-      <c r="C1444" s="34" t="s">
-        <v>1851</v>
+      <c r="C1444" s="56" t="s">
+        <v>1954</v>
       </c>
     </row>
     <row r="1445" spans="1:3">
       <c r="A1445" s="34"/>
-      <c r="B1445" s="33"/>
       <c r="C1445" s="56" t="s">
-        <v>1852</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1446" spans="1:3">
       <c r="A1446" s="34"/>
-      <c r="B1446" s="33"/>
-      <c r="C1446" s="56" t="s">
-        <v>1853</v>
-      </c>
+      <c r="C1446" s="34"/>
     </row>
     <row r="1447" spans="1:3">
-      <c r="A1447" s="34"/>
-      <c r="B1447" s="33"/>
-      <c r="C1447" s="56" t="s">
-        <v>1854</v>
+      <c r="A1447" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1447" s="33" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C1447" s="34" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="1448" spans="1:3">
       <c r="A1448" s="34"/>
       <c r="B1448" s="33"/>
-      <c r="C1448" s="56" t="s">
-        <v>1886</v>
+      <c r="C1448" s="34" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
       <c r="A1449" s="34"/>
       <c r="B1449" s="33"/>
-      <c r="C1449" s="56" t="s">
-        <v>1855</v>
-      </c>
+      <c r="C1449" s="34"/>
     </row>
     <row r="1450" spans="1:3">
       <c r="A1450" s="34"/>
       <c r="B1450" s="33"/>
-      <c r="C1450" s="56" t="s">
-        <v>1856</v>
+      <c r="C1450" s="34" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="1451" spans="1:3">
       <c r="A1451" s="34"/>
       <c r="B1451" s="33"/>
       <c r="C1451" s="56" t="s">
-        <v>1857</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1452" spans="1:3">
       <c r="A1452" s="34"/>
       <c r="B1452" s="33"/>
       <c r="C1452" s="56" t="s">
-        <v>1887</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1453" spans="1:3">
       <c r="A1453" s="34"/>
       <c r="B1453" s="33"/>
       <c r="C1453" s="56" t="s">
-        <v>1888</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1454" spans="1:3">
       <c r="A1454" s="34"/>
       <c r="B1454" s="33"/>
       <c r="C1454" s="56" t="s">
-        <v>834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1455" spans="1:3">
       <c r="A1455" s="34"/>
       <c r="B1455" s="33"/>
-      <c r="C1455" s="34"/>
+      <c r="C1455" s="56" t="s">
+        <v>1866</v>
+      </c>
     </row>
     <row r="1456" spans="1:3">
       <c r="A1456" s="34"/>
       <c r="B1456" s="33"/>
-      <c r="C1456" s="34" t="s">
-        <v>1858</v>
+      <c r="C1456" s="56" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="1457" spans="1:3">
       <c r="A1457" s="34"/>
       <c r="B1457" s="33"/>
       <c r="C1457" s="56" t="s">
-        <v>1852</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1458" spans="1:3">
       <c r="A1458" s="34"/>
       <c r="B1458" s="33"/>
       <c r="C1458" s="56" t="s">
-        <v>1859</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
       <c r="A1459" s="34"/>
       <c r="B1459" s="33"/>
-      <c r="C1459" s="56" t="s">
-        <v>1860</v>
-      </c>
+      <c r="C1459" s="34"/>
     </row>
     <row r="1460" spans="1:3">
       <c r="A1460" s="34"/>
       <c r="B1460" s="33"/>
-      <c r="C1460" s="56" t="s">
-        <v>1861</v>
+      <c r="C1460" s="34" t="s">
+        <v>1834</v>
       </c>
     </row>
     <row r="1461" spans="1:3">
       <c r="A1461" s="34"/>
       <c r="B1461" s="33"/>
       <c r="C1461" s="56" t="s">
-        <v>1889</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1462" spans="1:3">
       <c r="A1462" s="34"/>
       <c r="B1462" s="33"/>
       <c r="C1462" s="56" t="s">
-        <v>1890</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1463" spans="1:3">
       <c r="A1463" s="34"/>
       <c r="B1463" s="33"/>
       <c r="C1463" s="56" t="s">
-        <v>1862</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1464" spans="1:3">
       <c r="A1464" s="34"/>
       <c r="B1464" s="33"/>
       <c r="C1464" s="56" t="s">
-        <v>1891</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1465" spans="1:3">
       <c r="A1465" s="34"/>
       <c r="B1465" s="33"/>
       <c r="C1465" s="56" t="s">
-        <v>1892</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1466" spans="1:3">
       <c r="A1466" s="34"/>
       <c r="B1466" s="33"/>
       <c r="C1466" s="56" t="s">
-        <v>834</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1467" spans="1:3">
       <c r="A1467" s="34"/>
       <c r="B1467" s="33"/>
-      <c r="C1467" s="34"/>
+      <c r="C1467" s="56" t="s">
+        <v>1840</v>
+      </c>
     </row>
     <row r="1468" spans="1:3">
       <c r="A1468" s="34"/>
       <c r="B1468" s="33"/>
-      <c r="C1468" s="34" t="s">
-        <v>1863</v>
+      <c r="C1468" s="56" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="1469" spans="1:3">
       <c r="A1469" s="34"/>
       <c r="B1469" s="33"/>
       <c r="C1469" s="56" t="s">
-        <v>1852</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1470" spans="1:3">
       <c r="A1470" s="34"/>
       <c r="B1470" s="33"/>
       <c r="C1470" s="56" t="s">
-        <v>1864</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1471" spans="1:3">
       <c r="A1471" s="34"/>
       <c r="B1471" s="33"/>
-      <c r="C1471" s="56" t="s">
-        <v>1865</v>
-      </c>
+      <c r="C1471" s="34"/>
     </row>
     <row r="1472" spans="1:3">
       <c r="A1472" s="34"/>
       <c r="B1472" s="33"/>
-      <c r="C1472" s="56" t="s">
-        <v>1866</v>
+      <c r="C1472" s="34" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="1473" spans="1:3">
       <c r="A1473" s="34"/>
       <c r="B1473" s="33"/>
       <c r="C1473" s="56" t="s">
-        <v>1893</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1474" spans="1:3">
       <c r="A1474" s="34"/>
       <c r="B1474" s="33"/>
       <c r="C1474" s="56" t="s">
-        <v>1867</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1475" spans="1:3">
       <c r="A1475" s="34"/>
       <c r="B1475" s="33"/>
       <c r="C1475" s="56" t="s">
-        <v>1868</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1476" spans="1:3">
       <c r="A1476" s="34"/>
       <c r="B1476" s="33"/>
       <c r="C1476" s="56" t="s">
-        <v>1894</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1477" spans="1:3">
       <c r="A1477" s="34"/>
       <c r="B1477" s="33"/>
       <c r="C1477" s="56" t="s">
-        <v>1895</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1478" spans="1:3">
       <c r="A1478" s="34"/>
       <c r="B1478" s="33"/>
       <c r="C1478" s="56" t="s">
-        <v>1372</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1479" spans="1:3">
       <c r="A1479" s="34"/>
       <c r="B1479" s="33"/>
       <c r="C1479" s="56" t="s">
-        <v>1869</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
       <c r="A1480" s="34"/>
       <c r="B1480" s="33"/>
       <c r="C1480" s="56" t="s">
-        <v>1896</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
       <c r="A1481" s="34"/>
       <c r="B1481" s="33"/>
       <c r="C1481" s="56" t="s">
-        <v>834</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
       <c r="A1482" s="34"/>
       <c r="B1482" s="33"/>
-      <c r="C1482" s="34"/>
+      <c r="C1482" s="56" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="1483" spans="1:3">
       <c r="A1483" s="34"/>
       <c r="B1483" s="33"/>
-      <c r="C1483" s="34" t="s">
-        <v>1870</v>
-      </c>
+      <c r="C1483" s="34"/>
     </row>
     <row r="1484" spans="1:3">
       <c r="A1484" s="34"/>
       <c r="B1484" s="33"/>
-      <c r="C1484" s="56" t="s">
-        <v>1852</v>
+      <c r="C1484" s="34" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="1485" spans="1:3">
       <c r="A1485" s="34"/>
       <c r="B1485" s="33"/>
       <c r="C1485" s="56" t="s">
-        <v>1871</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1486" spans="1:3">
       <c r="A1486" s="34"/>
       <c r="B1486" s="33"/>
       <c r="C1486" s="56" t="s">
-        <v>1872</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
       <c r="A1487" s="34"/>
       <c r="B1487" s="33"/>
       <c r="C1487" s="56" t="s">
-        <v>1873</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
       <c r="A1488" s="34"/>
       <c r="B1488" s="33"/>
       <c r="C1488" s="56" t="s">
-        <v>1897</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1489" spans="1:3">
       <c r="A1489" s="34"/>
       <c r="B1489" s="33"/>
       <c r="C1489" s="56" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1490" spans="1:3">
       <c r="A1490" s="34"/>
       <c r="B1490" s="33"/>
       <c r="C1490" s="56" t="s">
-        <v>1875</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1491" spans="1:3">
       <c r="A1491" s="34"/>
       <c r="B1491" s="33"/>
       <c r="C1491" s="56" t="s">
-        <v>1876</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1492" spans="1:3">
       <c r="A1492" s="34"/>
       <c r="B1492" s="33"/>
       <c r="C1492" s="56" t="s">
-        <v>1898</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
       <c r="A1493" s="34"/>
       <c r="B1493" s="33"/>
       <c r="C1493" s="56" t="s">
-        <v>1899</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1494" spans="1:3">
       <c r="A1494" s="34"/>
       <c r="B1494" s="33"/>
       <c r="C1494" s="56" t="s">
-        <v>834</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
       <c r="A1495" s="34"/>
       <c r="B1495" s="33"/>
-      <c r="C1495" s="34"/>
+      <c r="C1495" s="56" t="s">
+        <v>1852</v>
+      </c>
     </row>
     <row r="1496" spans="1:3">
       <c r="A1496" s="34"/>
       <c r="B1496" s="33"/>
-      <c r="C1496" s="34" t="s">
-        <v>1877</v>
+      <c r="C1496" s="56" t="s">
+        <v>1879</v>
       </c>
     </row>
     <row r="1497" spans="1:3">
       <c r="A1497" s="34"/>
       <c r="B1497" s="33"/>
       <c r="C1497" s="56" t="s">
-        <v>1852</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1498" spans="1:3">
       <c r="A1498" s="34"/>
       <c r="B1498" s="33"/>
-      <c r="C1498" s="56" t="s">
-        <v>1878</v>
-      </c>
+      <c r="C1498" s="34"/>
     </row>
     <row r="1499" spans="1:3">
       <c r="A1499" s="34"/>
       <c r="B1499" s="33"/>
-      <c r="C1499" s="56" t="s">
-        <v>1879</v>
+      <c r="C1499" s="34" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="1500" spans="1:3">
       <c r="A1500" s="34"/>
       <c r="B1500" s="33"/>
       <c r="C1500" s="56" t="s">
-        <v>1880</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1501" spans="1:3">
       <c r="A1501" s="34"/>
       <c r="B1501" s="33"/>
       <c r="C1501" s="56" t="s">
-        <v>1900</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1502" spans="1:3">
       <c r="A1502" s="34"/>
       <c r="B1502" s="33"/>
       <c r="C1502" s="56" t="s">
-        <v>834</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1503" spans="1:3">
       <c r="A1503" s="34"/>
       <c r="B1503" s="33"/>
-      <c r="C1503" s="56"/>
+      <c r="C1503" s="56" t="s">
+        <v>1856</v>
+      </c>
     </row>
     <row r="1504" spans="1:3">
-      <c r="A1504" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1504" s="33" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C1504" s="34" t="s">
-        <v>1901</v>
+      <c r="A1504" s="34"/>
+      <c r="B1504" s="33"/>
+      <c r="C1504" s="56" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="1505" spans="1:3">
       <c r="A1505" s="34"/>
       <c r="B1505" s="33"/>
-      <c r="C1505" s="34" t="s">
-        <v>1902</v>
+      <c r="C1505" s="56" t="s">
+        <v>1857</v>
       </c>
     </row>
     <row r="1506" spans="1:3">
       <c r="A1506" s="34"/>
       <c r="B1506" s="33"/>
       <c r="C1506" s="56" t="s">
-        <v>1903</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
       <c r="A1507" s="34"/>
       <c r="B1507" s="33"/>
       <c r="C1507" s="56" t="s">
-        <v>1904</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
       <c r="A1508" s="34"/>
       <c r="B1508" s="33"/>
-      <c r="C1508" s="34"/>
+      <c r="C1508" s="56" t="s">
+        <v>1881</v>
+      </c>
     </row>
     <row r="1509" spans="1:3">
       <c r="A1509" s="34"/>
       <c r="B1509" s="33"/>
-      <c r="C1509" s="34" t="s">
-        <v>1905</v>
+      <c r="C1509" s="56" t="s">
+        <v>1882</v>
       </c>
     </row>
     <row r="1510" spans="1:3">
       <c r="A1510" s="34"/>
       <c r="B1510" s="33"/>
-      <c r="C1510" s="84" t="s">
-        <v>1906</v>
+      <c r="C1510" s="56" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="1511" spans="1:3">
       <c r="A1511" s="34"/>
       <c r="B1511" s="33"/>
-      <c r="C1511" s="84" t="s">
-        <v>1907</v>
-      </c>
+      <c r="C1511" s="34"/>
     </row>
     <row r="1512" spans="1:3">
       <c r="A1512" s="34"/>
       <c r="B1512" s="33"/>
-      <c r="C1512" s="34"/>
+      <c r="C1512" s="34" t="s">
+        <v>1860</v>
+      </c>
     </row>
     <row r="1513" spans="1:3">
       <c r="A1513" s="34"/>
       <c r="B1513" s="33"/>
-      <c r="C1513" s="34" t="s">
-        <v>1908</v>
+      <c r="C1513" s="56" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="1514" spans="1:3">
       <c r="A1514" s="34"/>
       <c r="B1514" s="33"/>
       <c r="C1514" s="56" t="s">
-        <v>1909</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1515" spans="1:3">
       <c r="A1515" s="34"/>
       <c r="B1515" s="33"/>
       <c r="C1515" s="56" t="s">
-        <v>1910</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1516" spans="1:3">
       <c r="A1516" s="34"/>
       <c r="B1516" s="33"/>
-      <c r="C1516" s="34"/>
+      <c r="C1516" s="56" t="s">
+        <v>1863</v>
+      </c>
     </row>
     <row r="1517" spans="1:3">
       <c r="A1517" s="34"/>
       <c r="B1517" s="33"/>
-      <c r="C1517" s="34" t="s">
-        <v>1911</v>
+      <c r="C1517" s="56" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="1518" spans="1:3">
       <c r="A1518" s="34"/>
       <c r="B1518" s="33"/>
       <c r="C1518" s="56" t="s">
-        <v>1912</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1519" spans="1:3">
       <c r="A1519" s="34"/>
       <c r="B1519" s="33"/>
-      <c r="C1519" s="56" t="s">
-        <v>1913</v>
-      </c>
+      <c r="C1519" s="56"/>
     </row>
     <row r="1520" spans="1:3">
-      <c r="A1520" s="34"/>
-      <c r="B1520" s="33"/>
-      <c r="C1520" s="34"/>
+      <c r="A1520" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1520" s="33" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C1520" s="34" t="s">
+        <v>1884</v>
+      </c>
     </row>
     <row r="1521" spans="1:3">
       <c r="A1521" s="34"/>
       <c r="B1521" s="33"/>
       <c r="C1521" s="34" t="s">
-        <v>1914</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1522" spans="1:3">
       <c r="A1522" s="34"/>
       <c r="B1522" s="33"/>
       <c r="C1522" s="56" t="s">
-        <v>1915</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
       <c r="A1523" s="34"/>
       <c r="B1523" s="33"/>
       <c r="C1523" s="56" t="s">
-        <v>1916</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
@@ -27404,227 +27491,221 @@
       <c r="A1525" s="34"/>
       <c r="B1525" s="33"/>
       <c r="C1525" s="34" t="s">
-        <v>1917</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
       <c r="A1526" s="34"/>
       <c r="B1526" s="33"/>
-      <c r="C1526" s="56" t="s">
-        <v>1918</v>
+      <c r="C1526" s="84" t="s">
+        <v>1889</v>
       </c>
     </row>
     <row r="1527" spans="1:3">
       <c r="A1527" s="34"/>
       <c r="B1527" s="33"/>
-      <c r="C1527" s="56" t="s">
-        <v>1919</v>
+      <c r="C1527" s="84" t="s">
+        <v>1890</v>
       </c>
     </row>
     <row r="1528" spans="1:3">
       <c r="A1528" s="34"/>
       <c r="B1528" s="33"/>
-      <c r="C1528" s="56"/>
+      <c r="C1528" s="34"/>
     </row>
     <row r="1529" spans="1:3">
       <c r="A1529" s="34"/>
       <c r="B1529" s="33"/>
       <c r="C1529" s="34" t="s">
-        <v>2045</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
       <c r="A1530" s="34"/>
       <c r="B1530" s="33"/>
-      <c r="C1530" s="34" t="s">
-        <v>2012</v>
+      <c r="C1530" s="56" t="s">
+        <v>1892</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
       <c r="A1531" s="34"/>
       <c r="B1531" s="33"/>
       <c r="C1531" s="56" t="s">
-        <v>829</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
       <c r="A1532" s="34"/>
       <c r="B1532" s="33"/>
-      <c r="C1532" s="56" t="s">
-        <v>2013</v>
-      </c>
+      <c r="C1532" s="34"/>
     </row>
     <row r="1533" spans="1:3">
       <c r="A1533" s="34"/>
       <c r="B1533" s="33"/>
-      <c r="C1533" s="56" t="s">
-        <v>2014</v>
+      <c r="C1533" s="34" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="1534" spans="1:3">
       <c r="A1534" s="34"/>
       <c r="B1534" s="33"/>
       <c r="C1534" s="56" t="s">
-        <v>2015</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1535" spans="1:3">
       <c r="A1535" s="34"/>
       <c r="B1535" s="33"/>
       <c r="C1535" s="56" t="s">
-        <v>2016</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
       <c r="A1536" s="34"/>
       <c r="B1536" s="33"/>
-      <c r="C1536" s="56" t="s">
-        <v>1938</v>
-      </c>
+      <c r="C1536" s="34"/>
     </row>
     <row r="1537" spans="1:3">
       <c r="A1537" s="34"/>
       <c r="B1537" s="33"/>
-      <c r="C1537" s="56" t="s">
-        <v>2017</v>
+      <c r="C1537" s="34" t="s">
+        <v>1897</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
       <c r="A1538" s="34"/>
       <c r="B1538" s="33"/>
       <c r="C1538" s="56" t="s">
-        <v>2018</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1539" spans="1:3">
       <c r="A1539" s="34"/>
       <c r="B1539" s="33"/>
       <c r="C1539" s="56" t="s">
-        <v>2019</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1540" spans="1:3">
       <c r="A1540" s="34"/>
       <c r="B1540" s="33"/>
-      <c r="C1540" s="56" t="s">
-        <v>2020</v>
-      </c>
+      <c r="C1540" s="34"/>
     </row>
     <row r="1541" spans="1:3">
       <c r="A1541" s="34"/>
       <c r="B1541" s="33"/>
-      <c r="C1541" s="56" t="s">
-        <v>2021</v>
+      <c r="C1541" s="34" t="s">
+        <v>1900</v>
       </c>
     </row>
     <row r="1542" spans="1:3">
       <c r="A1542" s="34"/>
       <c r="B1542" s="33"/>
       <c r="C1542" s="56" t="s">
-        <v>834</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1543" spans="1:3">
       <c r="A1543" s="34"/>
       <c r="B1543" s="33"/>
-      <c r="C1543" s="56"/>
+      <c r="C1543" s="56" t="s">
+        <v>1902</v>
+      </c>
     </row>
     <row r="1544" spans="1:3">
       <c r="A1544" s="34"/>
       <c r="B1544" s="33"/>
-      <c r="C1544" s="34" t="s">
-        <v>2022</v>
-      </c>
+      <c r="C1544" s="56"/>
     </row>
     <row r="1545" spans="1:3">
       <c r="A1545" s="34"/>
       <c r="B1545" s="33"/>
-      <c r="C1545" s="56" t="s">
-        <v>829</v>
+      <c r="C1545" s="34" t="s">
+        <v>2028</v>
       </c>
     </row>
     <row r="1546" spans="1:3">
       <c r="A1546" s="34"/>
       <c r="B1546" s="33"/>
-      <c r="C1546" s="56" t="s">
-        <v>2023</v>
+      <c r="C1546" s="34" t="s">
+        <v>1995</v>
       </c>
     </row>
     <row r="1547" spans="1:3">
       <c r="A1547" s="34"/>
       <c r="B1547" s="33"/>
       <c r="C1547" s="56" t="s">
-        <v>2024</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1548" spans="1:3">
       <c r="A1548" s="34"/>
       <c r="B1548" s="33"/>
       <c r="C1548" s="56" t="s">
-        <v>2025</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
       <c r="A1549" s="34"/>
       <c r="B1549" s="33"/>
       <c r="C1549" s="56" t="s">
-        <v>2026</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1550" spans="1:3">
       <c r="A1550" s="34"/>
       <c r="B1550" s="33"/>
       <c r="C1550" s="56" t="s">
-        <v>2027</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
       <c r="A1551" s="34"/>
       <c r="B1551" s="33"/>
       <c r="C1551" s="56" t="s">
-        <v>2028</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
       <c r="A1552" s="34"/>
       <c r="B1552" s="33"/>
       <c r="C1552" s="56" t="s">
-        <v>2029</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
       <c r="A1553" s="34"/>
       <c r="B1553" s="33"/>
       <c r="C1553" s="56" t="s">
-        <v>2030</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
       <c r="A1554" s="34"/>
       <c r="B1554" s="33"/>
       <c r="C1554" s="56" t="s">
-        <v>2031</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1555" spans="1:3">
       <c r="A1555" s="34"/>
       <c r="B1555" s="33"/>
       <c r="C1555" s="56" t="s">
-        <v>2032</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1556" spans="1:3">
       <c r="A1556" s="34"/>
       <c r="B1556" s="33"/>
       <c r="C1556" s="56" t="s">
-        <v>2033</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1557" spans="1:3">
       <c r="A1557" s="34"/>
       <c r="B1557" s="33"/>
       <c r="C1557" s="56" t="s">
-        <v>2034</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1558" spans="1:3">
@@ -27643,7 +27724,7 @@
       <c r="A1560" s="34"/>
       <c r="B1560" s="33"/>
       <c r="C1560" s="34" t="s">
-        <v>2035</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1561" spans="1:3">
@@ -27657,1437 +27738,1459 @@
       <c r="A1562" s="34"/>
       <c r="B1562" s="33"/>
       <c r="C1562" s="56" t="s">
-        <v>2036</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1563" spans="1:3">
       <c r="A1563" s="34"/>
       <c r="B1563" s="33"/>
       <c r="C1563" s="56" t="s">
-        <v>2037</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1564" spans="1:3">
       <c r="A1564" s="34"/>
       <c r="B1564" s="33"/>
       <c r="C1564" s="56" t="s">
-        <v>2038</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1565" spans="1:3">
       <c r="A1565" s="34"/>
       <c r="B1565" s="33"/>
       <c r="C1565" s="56" t="s">
-        <v>839</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1566" spans="1:3">
       <c r="A1566" s="34"/>
       <c r="B1566" s="33"/>
       <c r="C1566" s="56" t="s">
-        <v>2039</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
       <c r="A1567" s="34"/>
       <c r="B1567" s="33"/>
       <c r="C1567" s="56" t="s">
-        <v>2040</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1568" spans="1:3">
       <c r="A1568" s="34"/>
       <c r="B1568" s="33"/>
       <c r="C1568" s="56" t="s">
-        <v>2041</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1569" spans="1:3">
       <c r="A1569" s="34"/>
       <c r="B1569" s="33"/>
       <c r="C1569" s="56" t="s">
-        <v>2042</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1570" spans="1:3">
       <c r="A1570" s="34"/>
       <c r="B1570" s="33"/>
       <c r="C1570" s="56" t="s">
-        <v>2043</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1571" spans="1:3">
       <c r="A1571" s="34"/>
       <c r="B1571" s="33"/>
       <c r="C1571" s="56" t="s">
-        <v>2044</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1572" spans="1:3">
       <c r="A1572" s="34"/>
       <c r="B1572" s="33"/>
       <c r="C1572" s="56" t="s">
-        <v>834</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
       <c r="A1573" s="34"/>
       <c r="B1573" s="33"/>
-      <c r="C1573" s="56"/>
-    </row>
-    <row r="1574" spans="1:3" ht="15.5">
-      <c r="A1574" s="90" t="s">
-        <v>824</v>
-      </c>
-      <c r="B1574" s="90"/>
-      <c r="C1574" s="90"/>
+      <c r="C1573" s="56" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:3">
+      <c r="A1574" s="34"/>
+      <c r="B1574" s="33"/>
+      <c r="C1574" s="56" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="1575" spans="1:3">
       <c r="A1575" s="34"/>
-      <c r="C1575" s="34"/>
+      <c r="B1575" s="33"/>
+      <c r="C1575" s="56"/>
     </row>
     <row r="1576" spans="1:3">
-      <c r="A1576" s="34" t="s">
-        <v>784</v>
-      </c>
-      <c r="B1576" s="33" t="s">
-        <v>1920</v>
-      </c>
+      <c r="A1576" s="34"/>
+      <c r="B1576" s="33"/>
       <c r="C1576" s="34" t="s">
-        <v>1651</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
       <c r="A1577" s="34"/>
-      <c r="C1577" s="34" t="s">
-        <v>1652</v>
+      <c r="B1577" s="33"/>
+      <c r="C1577" s="56" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="1578" spans="1:3">
       <c r="A1578" s="34"/>
+      <c r="B1578" s="33"/>
       <c r="C1578" s="56" t="s">
-        <v>1653</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1579" spans="1:3">
       <c r="A1579" s="34"/>
+      <c r="B1579" s="33"/>
       <c r="C1579" s="56" t="s">
-        <v>1654</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1580" spans="1:3">
       <c r="A1580" s="34"/>
+      <c r="B1580" s="33"/>
       <c r="C1580" s="56" t="s">
-        <v>1655</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1581" spans="1:3">
       <c r="A1581" s="34"/>
+      <c r="B1581" s="33"/>
       <c r="C1581" s="56" t="s">
-        <v>1656</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1582" spans="1:3">
       <c r="A1582" s="34"/>
-      <c r="C1582" s="34"/>
+      <c r="B1582" s="33"/>
+      <c r="C1582" s="56" t="s">
+        <v>2022</v>
+      </c>
     </row>
     <row r="1583" spans="1:3">
       <c r="A1583" s="34"/>
-      <c r="C1583" s="34" t="s">
-        <v>1657</v>
+      <c r="B1583" s="33"/>
+      <c r="C1583" s="56" t="s">
+        <v>2023</v>
       </c>
     </row>
     <row r="1584" spans="1:3">
       <c r="A1584" s="34"/>
+      <c r="B1584" s="33"/>
       <c r="C1584" s="56" t="s">
-        <v>1658</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1585" spans="1:3">
       <c r="A1585" s="34"/>
+      <c r="B1585" s="33"/>
       <c r="C1585" s="56" t="s">
-        <v>1659</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1586" spans="1:3">
       <c r="A1586" s="34"/>
+      <c r="B1586" s="33"/>
       <c r="C1586" s="56" t="s">
-        <v>1660</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1587" spans="1:3">
       <c r="A1587" s="34"/>
+      <c r="B1587" s="33"/>
       <c r="C1587" s="56" t="s">
-        <v>1269</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
       <c r="A1588" s="34"/>
+      <c r="B1588" s="33"/>
       <c r="C1588" s="56" t="s">
-        <v>1661</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1589" spans="1:3">
       <c r="A1589" s="34"/>
-      <c r="C1589" s="56" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:3">
-      <c r="A1590" s="34"/>
-      <c r="C1590" s="56" t="s">
-        <v>1662</v>
-      </c>
+      <c r="B1589" s="33"/>
+      <c r="C1589" s="56"/>
+    </row>
+    <row r="1590" spans="1:3" ht="15.5">
+      <c r="A1590" s="90" t="s">
+        <v>824</v>
+      </c>
+      <c r="B1590" s="90"/>
+      <c r="C1590" s="90"/>
     </row>
     <row r="1591" spans="1:3">
       <c r="A1591" s="34"/>
-      <c r="C1591" s="56" t="s">
-        <v>1663</v>
-      </c>
+      <c r="C1591" s="34"/>
     </row>
     <row r="1592" spans="1:3">
-      <c r="A1592" s="34"/>
-      <c r="C1592" s="56" t="s">
-        <v>1664</v>
+      <c r="A1592" s="34" t="s">
+        <v>784</v>
+      </c>
+      <c r="B1592" s="33" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C1592" s="34" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="1593" spans="1:3">
       <c r="A1593" s="34"/>
-      <c r="C1593" s="56" t="s">
-        <v>675</v>
+      <c r="C1593" s="34" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="1594" spans="1:3">
       <c r="A1594" s="34"/>
-      <c r="C1594" s="34"/>
+      <c r="C1594" s="56" t="s">
+        <v>1653</v>
+      </c>
     </row>
     <row r="1595" spans="1:3">
       <c r="A1595" s="34"/>
-      <c r="C1595" s="34" t="s">
-        <v>1665</v>
+      <c r="C1595" s="56" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="1596" spans="1:3">
       <c r="A1596" s="34"/>
       <c r="C1596" s="56" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1597" spans="1:3">
       <c r="A1597" s="34"/>
       <c r="C1597" s="56" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1598" spans="1:3">
       <c r="A1598" s="34"/>
-      <c r="C1598" s="56" t="s">
-        <v>1668</v>
-      </c>
+      <c r="C1598" s="34"/>
     </row>
     <row r="1599" spans="1:3">
       <c r="A1599" s="34"/>
-      <c r="C1599" s="56" t="s">
-        <v>1669</v>
+      <c r="C1599" s="34" t="s">
+        <v>1657</v>
       </c>
     </row>
     <row r="1600" spans="1:3">
       <c r="A1600" s="34"/>
-      <c r="C1600" s="34"/>
+      <c r="C1600" s="56" t="s">
+        <v>1658</v>
+      </c>
     </row>
     <row r="1601" spans="1:3">
       <c r="A1601" s="34"/>
-      <c r="C1601" s="34" t="s">
-        <v>1670</v>
+      <c r="C1601" s="56" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="1602" spans="1:3">
       <c r="A1602" s="34"/>
       <c r="C1602" s="56" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1603" spans="1:3">
       <c r="A1603" s="34"/>
       <c r="C1603" s="56" t="s">
-        <v>1672</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1604" spans="1:3">
       <c r="A1604" s="34"/>
       <c r="C1604" s="56" t="s">
-        <v>1673</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1605" spans="1:3">
       <c r="A1605" s="34"/>
       <c r="C1605" s="56" t="s">
-        <v>1674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1606" spans="1:3">
       <c r="A1606" s="34"/>
       <c r="C1606" s="56" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1607" spans="1:3">
       <c r="A1607" s="34"/>
       <c r="C1607" s="56" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1608" spans="1:3">
       <c r="A1608" s="34"/>
       <c r="C1608" s="56" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1609" spans="1:3">
       <c r="A1609" s="34"/>
       <c r="C1609" s="56" t="s">
-        <v>1678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1610" spans="1:3">
       <c r="A1610" s="34"/>
-      <c r="C1610" s="56" t="s">
-        <v>1679</v>
-      </c>
+      <c r="C1610" s="34"/>
     </row>
     <row r="1611" spans="1:3">
       <c r="A1611" s="34"/>
-      <c r="C1611" s="34"/>
+      <c r="C1611" s="34" t="s">
+        <v>1665</v>
+      </c>
     </row>
     <row r="1612" spans="1:3">
       <c r="A1612" s="34"/>
-      <c r="C1612" s="34" t="s">
-        <v>1680</v>
+      <c r="C1612" s="56" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="1613" spans="1:3">
       <c r="A1613" s="34"/>
       <c r="C1613" s="56" t="s">
-        <v>1681</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="1614" spans="1:3">
       <c r="A1614" s="34"/>
       <c r="C1614" s="56" t="s">
-        <v>1682</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="1615" spans="1:3">
       <c r="A1615" s="34"/>
       <c r="C1615" s="56" t="s">
-        <v>1683</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1616" spans="1:3">
       <c r="A1616" s="34"/>
-      <c r="C1616" s="56" t="s">
-        <v>1684</v>
-      </c>
+      <c r="C1616" s="34"/>
     </row>
     <row r="1617" spans="1:3">
       <c r="A1617" s="34"/>
-      <c r="C1617" s="56" t="s">
-        <v>1685</v>
+      <c r="C1617" s="34" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="1618" spans="1:3">
       <c r="A1618" s="34"/>
       <c r="C1618" s="56" t="s">
-        <v>1686</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1619" spans="1:3">
       <c r="A1619" s="34"/>
       <c r="C1619" s="56" t="s">
-        <v>1687</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1620" spans="1:3">
       <c r="A1620" s="34"/>
       <c r="C1620" s="56" t="s">
-        <v>677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1621" spans="1:3">
       <c r="A1621" s="34"/>
       <c r="C1621" s="56" t="s">
-        <v>1688</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1622" spans="1:3">
       <c r="A1622" s="34"/>
       <c r="C1622" s="56" t="s">
-        <v>1689</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1623" spans="1:3">
       <c r="A1623" s="34"/>
-      <c r="C1623" s="34"/>
+      <c r="C1623" s="56" t="s">
+        <v>1676</v>
+      </c>
     </row>
     <row r="1624" spans="1:3">
       <c r="A1624" s="34"/>
-      <c r="C1624" s="34" t="s">
-        <v>1690</v>
+      <c r="C1624" s="56" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="1625" spans="1:3">
       <c r="A1625" s="34"/>
       <c r="C1625" s="56" t="s">
-        <v>1691</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1626" spans="1:3">
       <c r="A1626" s="34"/>
       <c r="C1626" s="56" t="s">
-        <v>1692</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1627" spans="1:3">
       <c r="A1627" s="34"/>
-      <c r="C1627" s="56" t="s">
-        <v>1693</v>
-      </c>
+      <c r="C1627" s="34"/>
     </row>
     <row r="1628" spans="1:3">
       <c r="A1628" s="34"/>
-      <c r="C1628" s="56" t="s">
-        <v>1694</v>
+      <c r="C1628" s="34" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="1629" spans="1:3">
       <c r="A1629" s="34"/>
       <c r="C1629" s="56" t="s">
-        <v>1695</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1630" spans="1:3">
       <c r="A1630" s="34"/>
       <c r="C1630" s="56" t="s">
-        <v>1696</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1631" spans="1:3">
       <c r="A1631" s="34"/>
       <c r="C1631" s="56" t="s">
-        <v>1697</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1632" spans="1:3">
       <c r="A1632" s="34"/>
       <c r="C1632" s="56" t="s">
-        <v>1698</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1633" spans="1:3">
       <c r="A1633" s="34"/>
       <c r="C1633" s="56" t="s">
-        <v>1699</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1634" spans="1:3">
       <c r="A1634" s="34"/>
-      <c r="C1634" s="34"/>
+      <c r="C1634" s="56" t="s">
+        <v>1686</v>
+      </c>
     </row>
     <row r="1635" spans="1:3">
       <c r="A1635" s="34"/>
-      <c r="C1635" s="34" t="s">
-        <v>1700</v>
+      <c r="C1635" s="56" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="1636" spans="1:3">
       <c r="A1636" s="34"/>
       <c r="C1636" s="56" t="s">
-        <v>1701</v>
+        <v>677</v>
       </c>
     </row>
     <row r="1637" spans="1:3">
       <c r="A1637" s="34"/>
       <c r="C1637" s="56" t="s">
-        <v>1702</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1638" spans="1:3">
       <c r="A1638" s="34"/>
       <c r="C1638" s="56" t="s">
-        <v>1703</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1639" spans="1:3">
       <c r="A1639" s="34"/>
-      <c r="C1639" s="56" t="s">
-        <v>1704</v>
-      </c>
+      <c r="C1639" s="34"/>
     </row>
     <row r="1640" spans="1:3">
       <c r="A1640" s="34"/>
-      <c r="C1640" s="56" t="s">
-        <v>1705</v>
+      <c r="C1640" s="34" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="1641" spans="1:3">
       <c r="A1641" s="34"/>
       <c r="C1641" s="56" t="s">
-        <v>1706</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1642" spans="1:3">
       <c r="A1642" s="34"/>
-      <c r="C1642" s="34"/>
+      <c r="C1642" s="56" t="s">
+        <v>1692</v>
+      </c>
     </row>
     <row r="1643" spans="1:3">
       <c r="A1643" s="34"/>
-      <c r="C1643" s="34" t="s">
-        <v>1707</v>
+      <c r="C1643" s="56" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="1644" spans="1:3">
       <c r="A1644" s="34"/>
       <c r="C1644" s="56" t="s">
-        <v>1708</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1645" spans="1:3">
       <c r="A1645" s="34"/>
       <c r="C1645" s="56" t="s">
-        <v>1226</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1646" spans="1:3">
       <c r="A1646" s="34"/>
       <c r="C1646" s="56" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1647" spans="1:3">
       <c r="A1647" s="34"/>
       <c r="C1647" s="56" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1648" spans="1:3">
       <c r="A1648" s="34"/>
       <c r="C1648" s="56" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1649" spans="1:3">
       <c r="A1649" s="34"/>
       <c r="C1649" s="56" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1650" spans="1:3">
       <c r="A1650" s="34"/>
-      <c r="C1650" s="56" t="s">
-        <v>1713</v>
-      </c>
+      <c r="C1650" s="34"/>
     </row>
     <row r="1651" spans="1:3">
       <c r="A1651" s="34"/>
-      <c r="C1651" s="56" t="s">
-        <v>1714</v>
+      <c r="C1651" s="34" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="1652" spans="1:3">
       <c r="A1652" s="34"/>
-      <c r="C1652" s="34"/>
+      <c r="C1652" s="56" t="s">
+        <v>1701</v>
+      </c>
     </row>
     <row r="1653" spans="1:3">
       <c r="A1653" s="34"/>
-      <c r="C1653" s="34" t="s">
-        <v>1715</v>
+      <c r="C1653" s="56" t="s">
+        <v>1702</v>
       </c>
     </row>
     <row r="1654" spans="1:3">
       <c r="A1654" s="34"/>
       <c r="C1654" s="56" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1655" spans="1:3">
       <c r="A1655" s="34"/>
       <c r="C1655" s="56" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1656" spans="1:3">
       <c r="A1656" s="34"/>
       <c r="C1656" s="56" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1657" spans="1:3">
       <c r="A1657" s="34"/>
       <c r="C1657" s="56" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1658" spans="1:3">
       <c r="A1658" s="34"/>
-      <c r="C1658" s="56" t="s">
-        <v>1270</v>
-      </c>
+      <c r="C1658" s="34"/>
     </row>
     <row r="1659" spans="1:3">
       <c r="A1659" s="34"/>
-      <c r="C1659" s="56" t="s">
-        <v>1720</v>
+      <c r="C1659" s="34" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="1660" spans="1:3">
       <c r="A1660" s="34"/>
       <c r="C1660" s="56" t="s">
-        <v>678</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1661" spans="1:3">
       <c r="A1661" s="34"/>
       <c r="C1661" s="56" t="s">
-        <v>1721</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1662" spans="1:3">
       <c r="A1662" s="34"/>
       <c r="C1662" s="56" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1663" spans="1:3">
       <c r="A1663" s="34"/>
       <c r="C1663" s="56" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1664" spans="1:3">
       <c r="A1664" s="34"/>
       <c r="C1664" s="56" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:4">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:3">
       <c r="A1665" s="34"/>
-      <c r="C1665" s="34"/>
-    </row>
-    <row r="1666" spans="1:4">
+      <c r="C1665" s="56" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:3">
       <c r="A1666" s="34"/>
-      <c r="C1666" s="34" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:4">
+      <c r="C1666" s="56" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:3">
       <c r="A1667" s="34"/>
       <c r="C1667" s="56" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:4">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:3">
       <c r="A1668" s="34"/>
-      <c r="C1668" s="56" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:4">
+      <c r="C1668" s="34"/>
+    </row>
+    <row r="1669" spans="1:3">
       <c r="A1669" s="34"/>
-      <c r="C1669" s="56" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:4">
+      <c r="C1669" s="34" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:3">
       <c r="A1670" s="34"/>
       <c r="C1670" s="56" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:4">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:3">
       <c r="A1671" s="34"/>
-      <c r="C1671" s="56"/>
-    </row>
-    <row r="1672" spans="1:4">
-      <c r="A1672" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1672" s="33" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C1672" s="34" t="s">
-        <v>1921</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:4">
+      <c r="C1671" s="56" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:3">
+      <c r="A1672" s="34"/>
+      <c r="C1672" s="56" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:3">
       <c r="A1673" s="34"/>
-      <c r="C1673" s="34" t="s">
-        <v>911</v>
-      </c>
-      <c r="D1673" s="36"/>
-    </row>
-    <row r="1674" spans="1:4">
+      <c r="C1673" s="56" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:3">
       <c r="A1674" s="34"/>
-      <c r="C1674" s="56"/>
-    </row>
-    <row r="1675" spans="1:4">
+      <c r="C1674" s="56" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:3">
       <c r="A1675" s="34"/>
-      <c r="C1675" s="34" t="s">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:4">
+      <c r="C1675" s="56" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:3">
       <c r="A1676" s="34"/>
       <c r="C1676" s="56" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:4">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:3">
       <c r="A1677" s="34"/>
       <c r="C1677" s="56" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:4">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:3">
       <c r="A1678" s="34"/>
       <c r="C1678" s="56" t="s">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:4">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:3">
       <c r="A1679" s="34"/>
       <c r="C1679" s="56" t="s">
-        <v>1926</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:4">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:3">
       <c r="A1680" s="34"/>
-      <c r="C1680" s="56"/>
-    </row>
-    <row r="1681" spans="1:3">
+      <c r="C1680" s="56" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4">
       <c r="A1681" s="34"/>
-      <c r="C1681" s="34" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:3">
+      <c r="C1681" s="34"/>
+    </row>
+    <row r="1682" spans="1:4">
       <c r="A1682" s="34"/>
-      <c r="C1682" s="56" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:3">
+      <c r="C1682" s="34" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4">
       <c r="A1683" s="34"/>
       <c r="C1683" s="56" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:3">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4">
       <c r="A1684" s="34"/>
       <c r="C1684" s="56" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:3">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4">
       <c r="A1685" s="34"/>
       <c r="C1685" s="56" t="s">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:3">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4">
       <c r="A1686" s="34"/>
       <c r="C1686" s="56" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4">
       <c r="A1687" s="34"/>
-      <c r="C1687" s="56" t="s">
-        <v>1932</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:3">
-      <c r="A1688" s="34"/>
-      <c r="C1688" s="56" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:3">
+      <c r="C1687" s="56"/>
+    </row>
+    <row r="1688" spans="1:4">
+      <c r="A1688" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1688" s="33" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1688" s="34" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4">
       <c r="A1689" s="34"/>
-      <c r="C1689" s="56"/>
-    </row>
-    <row r="1690" spans="1:3">
+      <c r="C1689" s="34" t="s">
+        <v>911</v>
+      </c>
+      <c r="D1689" s="36"/>
+    </row>
+    <row r="1690" spans="1:4">
       <c r="A1690" s="34"/>
-      <c r="C1690" s="34" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:3">
+      <c r="C1690" s="56"/>
+    </row>
+    <row r="1691" spans="1:4">
       <c r="A1691" s="34"/>
-      <c r="C1691" s="56" t="s">
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:3">
+      <c r="C1691" s="34" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4">
       <c r="A1692" s="34"/>
       <c r="C1692" s="56" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:3">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4">
       <c r="A1693" s="34"/>
       <c r="C1693" s="56" t="s">
-        <v>1936</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:3">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4">
       <c r="A1694" s="34"/>
       <c r="C1694" s="56" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:3">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4">
       <c r="A1695" s="34"/>
       <c r="C1695" s="56" t="s">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:3">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4">
       <c r="A1696" s="34"/>
-      <c r="C1696" s="56" t="s">
-        <v>1939</v>
-      </c>
+      <c r="C1696" s="56"/>
     </row>
     <row r="1697" spans="1:3">
       <c r="A1697" s="34"/>
-      <c r="C1697" s="56" t="s">
-        <v>1940</v>
+      <c r="C1697" s="34" t="s">
+        <v>1910</v>
       </c>
     </row>
     <row r="1698" spans="1:3">
       <c r="A1698" s="34"/>
       <c r="C1698" s="56" t="s">
-        <v>1941</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1699" spans="1:3">
       <c r="A1699" s="34"/>
       <c r="C1699" s="56" t="s">
-        <v>1942</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1700" spans="1:3">
       <c r="A1700" s="34"/>
       <c r="C1700" s="56" t="s">
-        <v>1943</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1701" spans="1:3">
       <c r="A1701" s="34"/>
       <c r="C1701" s="56" t="s">
-        <v>834</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1702" spans="1:3">
       <c r="A1702" s="34"/>
-      <c r="C1702" s="56"/>
+      <c r="C1702" s="56" t="s">
+        <v>1914</v>
+      </c>
     </row>
     <row r="1703" spans="1:3">
       <c r="A1703" s="34"/>
-      <c r="C1703" s="34" t="s">
-        <v>1944</v>
+      <c r="C1703" s="56" t="s">
+        <v>1915</v>
       </c>
     </row>
     <row r="1704" spans="1:3">
       <c r="A1704" s="34"/>
       <c r="C1704" s="56" t="s">
-        <v>1944</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1705" spans="1:3">
       <c r="A1705" s="34"/>
-      <c r="C1705" s="56" t="s">
-        <v>1945</v>
-      </c>
+      <c r="C1705" s="56"/>
     </row>
     <row r="1706" spans="1:3">
       <c r="A1706" s="34"/>
-      <c r="C1706" s="56" t="s">
-        <v>1946</v>
+      <c r="C1706" s="34" t="s">
+        <v>1917</v>
       </c>
     </row>
     <row r="1707" spans="1:3">
       <c r="A1707" s="34"/>
       <c r="C1707" s="56" t="s">
-        <v>1947</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1708" spans="1:3">
       <c r="A1708" s="34"/>
       <c r="C1708" s="56" t="s">
-        <v>834</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1709" spans="1:3">
       <c r="A1709" s="34"/>
-      <c r="C1709" s="56"/>
+      <c r="C1709" s="56" t="s">
+        <v>1919</v>
+      </c>
     </row>
     <row r="1710" spans="1:3">
       <c r="A1710" s="34"/>
-      <c r="C1710" s="34" t="s">
-        <v>1948</v>
+      <c r="C1710" s="56" t="s">
+        <v>1920</v>
       </c>
     </row>
     <row r="1711" spans="1:3">
       <c r="A1711" s="34"/>
       <c r="C1711" s="56" t="s">
-        <v>829</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1712" spans="1:3">
       <c r="A1712" s="34"/>
       <c r="C1712" s="56" t="s">
-        <v>1949</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1713" spans="1:3">
       <c r="A1713" s="34"/>
       <c r="C1713" s="56" t="s">
-        <v>1950</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1714" spans="1:3">
       <c r="A1714" s="34"/>
       <c r="C1714" s="56" t="s">
-        <v>1558</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1715" spans="1:3">
       <c r="A1715" s="34"/>
       <c r="C1715" s="56" t="s">
-        <v>834</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1716" spans="1:3">
       <c r="A1716" s="34"/>
-      <c r="C1716" s="56"/>
+      <c r="C1716" s="56" t="s">
+        <v>1926</v>
+      </c>
     </row>
     <row r="1717" spans="1:3">
       <c r="A1717" s="34"/>
-      <c r="C1717" s="34" t="s">
-        <v>1951</v>
+      <c r="C1717" s="56" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="1718" spans="1:3">
       <c r="A1718" s="34"/>
-      <c r="C1718" s="56" t="s">
-        <v>1952</v>
-      </c>
+      <c r="C1718" s="56"/>
     </row>
     <row r="1719" spans="1:3">
       <c r="A1719" s="34"/>
-      <c r="C1719" s="56" t="s">
-        <v>1953</v>
+      <c r="C1719" s="34" t="s">
+        <v>1927</v>
       </c>
     </row>
     <row r="1720" spans="1:3">
       <c r="A1720" s="34"/>
       <c r="C1720" s="56" t="s">
-        <v>1558</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1721" spans="1:3">
       <c r="A1721" s="34"/>
       <c r="C1721" s="56" t="s">
-        <v>834</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1722" spans="1:3">
       <c r="A1722" s="34"/>
-      <c r="C1722" s="56"/>
+      <c r="C1722" s="56" t="s">
+        <v>1929</v>
+      </c>
     </row>
     <row r="1723" spans="1:3">
       <c r="A1723" s="34"/>
-      <c r="C1723" s="34" t="s">
-        <v>1954</v>
+      <c r="C1723" s="56" t="s">
+        <v>1930</v>
       </c>
     </row>
     <row r="1724" spans="1:3">
       <c r="A1724" s="34"/>
       <c r="C1724" s="56" t="s">
-        <v>1955</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1725" spans="1:3">
       <c r="A1725" s="34"/>
-      <c r="C1725" s="56" t="s">
-        <v>1953</v>
-      </c>
+      <c r="C1725" s="56"/>
     </row>
     <row r="1726" spans="1:3">
       <c r="A1726" s="34"/>
-      <c r="C1726" s="56" t="s">
-        <v>1956</v>
+      <c r="C1726" s="34" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="1727" spans="1:3">
       <c r="A1727" s="34"/>
       <c r="C1727" s="56" t="s">
-        <v>1558</v>
+        <v>829</v>
       </c>
     </row>
     <row r="1728" spans="1:3">
       <c r="A1728" s="34"/>
       <c r="C1728" s="56" t="s">
-        <v>834</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1729" spans="1:3">
       <c r="A1729" s="34"/>
-      <c r="C1729" s="56"/>
+      <c r="C1729" s="56" t="s">
+        <v>1933</v>
+      </c>
     </row>
     <row r="1730" spans="1:3">
       <c r="A1730" s="34"/>
-      <c r="C1730" s="34" t="s">
-        <v>1957</v>
+      <c r="C1730" s="56" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="1731" spans="1:3">
       <c r="A1731" s="34"/>
       <c r="C1731" s="56" t="s">
-        <v>1957</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1732" spans="1:3">
       <c r="A1732" s="34"/>
-      <c r="C1732" s="56" t="s">
-        <v>1958</v>
-      </c>
+      <c r="C1732" s="56"/>
     </row>
     <row r="1733" spans="1:3">
       <c r="A1733" s="34"/>
-      <c r="C1733" s="56" t="s">
-        <v>1558</v>
+      <c r="C1733" s="34" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="1734" spans="1:3">
       <c r="A1734" s="34"/>
       <c r="C1734" s="56" t="s">
-        <v>834</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1735" spans="1:3">
       <c r="A1735" s="34"/>
-      <c r="C1735" s="56"/>
+      <c r="C1735" s="56" t="s">
+        <v>1936</v>
+      </c>
     </row>
     <row r="1736" spans="1:3">
-      <c r="A1736" s="34" t="s">
-        <v>787</v>
-      </c>
-      <c r="B1736" s="33" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C1736" s="34" t="s">
-        <v>1729</v>
+      <c r="A1736" s="34"/>
+      <c r="C1736" s="56" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="1737" spans="1:3">
       <c r="A1737" s="34"/>
-      <c r="C1737" s="34" t="s">
-        <v>1730</v>
+      <c r="C1737" s="56" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="1738" spans="1:3">
       <c r="A1738" s="34"/>
-      <c r="C1738" s="56" t="s">
-        <v>1731</v>
-      </c>
+      <c r="C1738" s="56"/>
     </row>
     <row r="1739" spans="1:3">
       <c r="A1739" s="34"/>
-      <c r="C1739" s="56" t="s">
-        <v>1732</v>
+      <c r="C1739" s="34" t="s">
+        <v>1937</v>
       </c>
     </row>
     <row r="1740" spans="1:3">
       <c r="A1740" s="34"/>
       <c r="C1740" s="56" t="s">
-        <v>1733</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1741" spans="1:3">
       <c r="A1741" s="34"/>
       <c r="C1741" s="56" t="s">
-        <v>1734</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1742" spans="1:3">
       <c r="A1742" s="34"/>
       <c r="C1742" s="56" t="s">
-        <v>1735</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1743" spans="1:3">
       <c r="A1743" s="34"/>
       <c r="C1743" s="56" t="s">
-        <v>1736</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1744" spans="1:3">
       <c r="A1744" s="34"/>
       <c r="C1744" s="56" t="s">
-        <v>1737</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1745" spans="1:3">
       <c r="A1745" s="34"/>
-      <c r="C1745" s="34"/>
+      <c r="C1745" s="56"/>
     </row>
     <row r="1746" spans="1:3">
       <c r="A1746" s="34"/>
       <c r="C1746" s="34" t="s">
-        <v>1738</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1747" spans="1:3">
       <c r="A1747" s="34"/>
       <c r="C1747" s="56" t="s">
-        <v>1739</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
       <c r="A1748" s="34"/>
-      <c r="C1748" s="34"/>
+      <c r="C1748" s="56" t="s">
+        <v>1941</v>
+      </c>
     </row>
     <row r="1749" spans="1:3">
       <c r="A1749" s="34"/>
-      <c r="C1749" s="34" t="s">
-        <v>1740</v>
+      <c r="C1749" s="56" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="1750" spans="1:3">
       <c r="A1750" s="34"/>
       <c r="C1750" s="56" t="s">
-        <v>1741</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1751" spans="1:3">
       <c r="A1751" s="34"/>
-      <c r="C1751" s="56" t="s">
-        <v>1742</v>
-      </c>
+      <c r="C1751" s="56"/>
     </row>
     <row r="1752" spans="1:3">
-      <c r="A1752" s="34"/>
-      <c r="C1752" s="56" t="s">
-        <v>1743</v>
+      <c r="A1752" s="34" t="s">
+        <v>787</v>
+      </c>
+      <c r="B1752" s="33" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C1752" s="34" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="1753" spans="1:3">
       <c r="A1753" s="34"/>
-      <c r="C1753" s="56" t="s">
-        <v>1744</v>
+      <c r="C1753" s="34" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="1754" spans="1:3">
       <c r="A1754" s="34"/>
       <c r="C1754" s="56" t="s">
-        <v>1745</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1755" spans="1:3">
       <c r="A1755" s="34"/>
       <c r="C1755" s="56" t="s">
-        <v>1746</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1756" spans="1:3">
       <c r="A1756" s="34"/>
-      <c r="C1756" s="34"/>
+      <c r="C1756" s="56" t="s">
+        <v>1733</v>
+      </c>
     </row>
     <row r="1757" spans="1:3">
       <c r="A1757" s="34"/>
-      <c r="C1757" s="34" t="s">
-        <v>1648</v>
+      <c r="C1757" s="56" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="1758" spans="1:3">
       <c r="A1758" s="34"/>
       <c r="C1758" s="56" t="s">
-        <v>1649</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1759" spans="1:3">
       <c r="A1759" s="34"/>
       <c r="C1759" s="56" t="s">
-        <v>1747</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1760" spans="1:3">
       <c r="A1760" s="34"/>
-      <c r="C1760" s="56"/>
+      <c r="C1760" s="56" t="s">
+        <v>1737</v>
+      </c>
     </row>
     <row r="1761" spans="1:3">
-      <c r="A1761" s="40" t="s">
-        <v>2052</v>
-      </c>
-      <c r="C1761" s="34" t="s">
-        <v>2053</v>
-      </c>
+      <c r="A1761" s="34"/>
+      <c r="C1761" s="34"/>
     </row>
     <row r="1762" spans="1:3">
-      <c r="A1762" s="40"/>
+      <c r="A1762" s="34"/>
       <c r="C1762" s="34" t="s">
-        <v>2054</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1763" spans="1:3">
-      <c r="A1763" s="40"/>
+      <c r="A1763" s="34"/>
       <c r="C1763" s="56" t="s">
-        <v>2055</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1764" spans="1:3">
-      <c r="A1764" s="40"/>
-      <c r="C1764" s="56" t="s">
-        <v>2056</v>
-      </c>
+      <c r="A1764" s="34"/>
+      <c r="C1764" s="34"/>
     </row>
     <row r="1765" spans="1:3">
-      <c r="A1765" s="40"/>
-      <c r="C1765" s="34"/>
+      <c r="A1765" s="34"/>
+      <c r="C1765" s="34" t="s">
+        <v>1740</v>
+      </c>
     </row>
     <row r="1766" spans="1:3">
-      <c r="A1766" s="40"/>
-      <c r="C1766" s="34" t="s">
-        <v>2057</v>
+      <c r="A1766" s="34"/>
+      <c r="C1766" s="56" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="1767" spans="1:3">
-      <c r="A1767" s="40"/>
+      <c r="A1767" s="34"/>
       <c r="C1767" s="56" t="s">
-        <v>2058</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1768" spans="1:3">
-      <c r="A1768" s="40"/>
+      <c r="A1768" s="34"/>
       <c r="C1768" s="56" t="s">
-        <v>2059</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1769" spans="1:3">
-      <c r="A1769" s="40"/>
-      <c r="C1769" s="56"/>
+      <c r="A1769" s="34"/>
+      <c r="C1769" s="56" t="s">
+        <v>1744</v>
+      </c>
     </row>
     <row r="1770" spans="1:3">
-      <c r="A1770" s="40"/>
-      <c r="C1770" s="34" t="s">
-        <v>2097</v>
+      <c r="A1770" s="34"/>
+      <c r="C1770" s="56" t="s">
+        <v>1745</v>
       </c>
     </row>
     <row r="1771" spans="1:3">
-      <c r="A1771" s="40"/>
+      <c r="A1771" s="34"/>
       <c r="C1771" s="56" t="s">
-        <v>2098</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1772" spans="1:3">
-      <c r="A1772" s="40"/>
-      <c r="C1772" s="56" t="s">
-        <v>2099</v>
-      </c>
+      <c r="A1772" s="34"/>
+      <c r="C1772" s="34"/>
     </row>
     <row r="1773" spans="1:3">
-      <c r="A1773" s="40"/>
-      <c r="C1773" s="56" t="s">
-        <v>2100</v>
+      <c r="A1773" s="34"/>
+      <c r="C1773" s="34" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="1774" spans="1:3">
-      <c r="A1774" s="40"/>
-      <c r="C1774" s="56"/>
+      <c r="A1774" s="34"/>
+      <c r="C1774" s="56" t="s">
+        <v>1649</v>
+      </c>
     </row>
     <row r="1775" spans="1:3">
-      <c r="A1775" s="40"/>
-      <c r="C1775" s="34" t="s">
-        <v>2101</v>
+      <c r="A1775" s="34"/>
+      <c r="C1775" s="56" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="1776" spans="1:3">
-      <c r="A1776" s="40"/>
-      <c r="C1776" t="s">
-        <v>2102</v>
-      </c>
+      <c r="A1776" s="34"/>
+      <c r="C1776" s="56"/>
     </row>
     <row r="1777" spans="1:3">
-      <c r="A1777" s="40"/>
-      <c r="C1777" t="s">
-        <v>2103</v>
+      <c r="A1777" s="40" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C1777" s="34" t="s">
+        <v>2036</v>
       </c>
     </row>
     <row r="1778" spans="1:3">
       <c r="A1778" s="40"/>
-      <c r="C1778" t="s">
-        <v>2104</v>
+      <c r="C1778" s="34" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="1779" spans="1:3">
       <c r="A1779" s="40"/>
-      <c r="C1779" s="86" t="s">
-        <v>2105</v>
+      <c r="C1779" s="56" t="s">
+        <v>2038</v>
       </c>
     </row>
     <row r="1780" spans="1:3">
       <c r="A1780" s="40"/>
-      <c r="C1780" t="s">
-        <v>2107</v>
+      <c r="C1780" s="56" t="s">
+        <v>2039</v>
       </c>
     </row>
     <row r="1781" spans="1:3">
       <c r="A1781" s="40"/>
-      <c r="C1781" t="s">
-        <v>2106</v>
-      </c>
+      <c r="C1781" s="34"/>
     </row>
     <row r="1782" spans="1:3">
       <c r="A1782" s="40"/>
-      <c r="C1782"/>
+      <c r="C1782" s="34" t="s">
+        <v>2040</v>
+      </c>
     </row>
     <row r="1783" spans="1:3">
       <c r="A1783" s="40"/>
-      <c r="C1783" s="86" t="s">
-        <v>2108</v>
+      <c r="C1783" s="56" t="s">
+        <v>2041</v>
       </c>
     </row>
     <row r="1784" spans="1:3">
       <c r="A1784" s="40"/>
-      <c r="C1784" s="56"/>
+      <c r="C1784" s="56" t="s">
+        <v>2042</v>
+      </c>
     </row>
     <row r="1785" spans="1:3">
       <c r="A1785" s="40"/>
-      <c r="C1785" s="34" t="s">
-        <v>2109</v>
-      </c>
+      <c r="C1785" s="56"/>
     </row>
     <row r="1786" spans="1:3">
       <c r="A1786" s="40"/>
-      <c r="C1786" t="s">
-        <v>2110</v>
+      <c r="C1786" s="34" t="s">
+        <v>2080</v>
       </c>
     </row>
     <row r="1787" spans="1:3">
       <c r="A1787" s="40"/>
-      <c r="C1787" t="s">
-        <v>2111</v>
+      <c r="C1787" s="56" t="s">
+        <v>2081</v>
       </c>
     </row>
     <row r="1788" spans="1:3">
       <c r="A1788" s="40"/>
-      <c r="C1788"/>
+      <c r="C1788" s="56" t="s">
+        <v>2082</v>
+      </c>
     </row>
     <row r="1789" spans="1:3">
       <c r="A1789" s="40"/>
-      <c r="C1789" s="34" t="s">
-        <v>2112</v>
+      <c r="C1789" s="56" t="s">
+        <v>2083</v>
       </c>
     </row>
     <row r="1790" spans="1:3">
       <c r="A1790" s="40"/>
-      <c r="C1790" t="s">
-        <v>2114</v>
-      </c>
+      <c r="C1790" s="56"/>
     </row>
     <row r="1791" spans="1:3">
       <c r="A1791" s="40"/>
-      <c r="C1791" t="s">
-        <v>2113</v>
+      <c r="C1791" s="34" t="s">
+        <v>2084</v>
       </c>
     </row>
     <row r="1792" spans="1:3">
       <c r="A1792" s="40"/>
-      <c r="C1792"/>
+      <c r="C1792" t="s">
+        <v>2085</v>
+      </c>
     </row>
     <row r="1793" spans="1:3">
       <c r="A1793" s="40"/>
-      <c r="C1793" s="34" t="s">
-        <v>2115</v>
+      <c r="C1793" t="s">
+        <v>2086</v>
       </c>
     </row>
     <row r="1794" spans="1:3">
       <c r="A1794" s="40"/>
-      <c r="C1794" s="34"/>
+      <c r="C1794" t="s">
+        <v>2087</v>
+      </c>
     </row>
     <row r="1795" spans="1:3">
       <c r="A1795" s="40"/>
-      <c r="C1795" s="34" t="s">
-        <v>2116</v>
+      <c r="C1795" s="86" t="s">
+        <v>2088</v>
       </c>
     </row>
     <row r="1796" spans="1:3">
       <c r="A1796" s="40"/>
-      <c r="C1796" s="56"/>
+      <c r="C1796" t="s">
+        <v>2090</v>
+      </c>
     </row>
     <row r="1797" spans="1:3">
       <c r="A1797" s="40"/>
-      <c r="C1797" s="34" t="s">
-        <v>2117</v>
+      <c r="C1797" t="s">
+        <v>2089</v>
       </c>
     </row>
     <row r="1798" spans="1:3">
       <c r="A1798" s="40"/>
-      <c r="C1798" t="s">
-        <v>2118</v>
-      </c>
+      <c r="C1798"/>
     </row>
     <row r="1799" spans="1:3">
       <c r="A1799" s="40"/>
-      <c r="C1799" t="s">
-        <v>2119</v>
+      <c r="C1799" s="86" t="s">
+        <v>2091</v>
       </c>
     </row>
     <row r="1800" spans="1:3">
       <c r="A1800" s="40"/>
-      <c r="C1800" t="s">
-        <v>2120</v>
-      </c>
+      <c r="C1800" s="56"/>
     </row>
     <row r="1801" spans="1:3">
       <c r="A1801" s="40"/>
-      <c r="C1801" t="s">
-        <v>2116</v>
+      <c r="C1801" s="34" t="s">
+        <v>2092</v>
       </c>
     </row>
     <row r="1802" spans="1:3">
       <c r="A1802" s="40"/>
       <c r="C1802" t="s">
-        <v>2122</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1803" spans="1:3">
       <c r="A1803" s="40"/>
-      <c r="C1803"/>
+      <c r="C1803" t="s">
+        <v>2094</v>
+      </c>
     </row>
     <row r="1804" spans="1:3">
       <c r="A1804" s="40"/>
-      <c r="C1804" s="34" t="s">
-        <v>2121</v>
-      </c>
+      <c r="C1804"/>
     </row>
     <row r="1805" spans="1:3">
       <c r="A1805" s="40"/>
-      <c r="C1805" t="s">
-        <v>2123</v>
+      <c r="C1805" s="34" t="s">
+        <v>2095</v>
       </c>
     </row>
     <row r="1806" spans="1:3">
       <c r="A1806" s="40"/>
       <c r="C1806" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1807" spans="1:3">
       <c r="A1807" s="40"/>
       <c r="C1807" t="s">
-        <v>2124</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1808" spans="1:3">
@@ -29096,385 +29199,473 @@
     </row>
     <row r="1809" spans="1:3">
       <c r="A1809" s="40"/>
-      <c r="C1809" s="86" t="s">
-        <v>2116</v>
+      <c r="C1809" s="34" t="s">
+        <v>2098</v>
       </c>
     </row>
     <row r="1810" spans="1:3">
       <c r="A1810" s="40"/>
-      <c r="C1810" s="86" t="s">
-        <v>2125</v>
-      </c>
+      <c r="C1810" s="34"/>
     </row>
     <row r="1811" spans="1:3">
       <c r="A1811" s="40"/>
-      <c r="C1811" s="86" t="s">
-        <v>2126</v>
+      <c r="C1811" s="34" t="s">
+        <v>2099</v>
       </c>
     </row>
     <row r="1812" spans="1:3">
       <c r="A1812" s="40"/>
-      <c r="C1812" s="86"/>
+      <c r="C1812" s="56"/>
     </row>
     <row r="1813" spans="1:3">
       <c r="A1813" s="40"/>
-      <c r="C1813" s="86" t="s">
-        <v>2127</v>
+      <c r="C1813" s="34" t="s">
+        <v>2100</v>
       </c>
     </row>
     <row r="1814" spans="1:3">
       <c r="A1814" s="40"/>
+      <c r="C1814" t="s">
+        <v>2101</v>
+      </c>
     </row>
     <row r="1815" spans="1:3">
       <c r="A1815" s="40"/>
-      <c r="C1815" s="86" t="s">
-        <v>2128</v>
+      <c r="C1815" t="s">
+        <v>2102</v>
       </c>
     </row>
     <row r="1816" spans="1:3">
       <c r="A1816" s="40"/>
       <c r="C1816" t="s">
-        <v>2129</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1817" spans="1:3">
       <c r="A1817" s="40"/>
       <c r="C1817" t="s">
-        <v>2130</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1818" spans="1:3">
       <c r="A1818" s="40"/>
       <c r="C1818" t="s">
-        <v>2131</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1819" spans="1:3">
       <c r="A1819" s="40"/>
-      <c r="C1819" t="s">
-        <v>2132</v>
-      </c>
+      <c r="C1819"/>
     </row>
     <row r="1820" spans="1:3">
       <c r="A1820" s="40"/>
-      <c r="C1820" t="s">
-        <v>2133</v>
+      <c r="C1820" s="34" t="s">
+        <v>2104</v>
       </c>
     </row>
     <row r="1821" spans="1:3">
       <c r="A1821" s="40"/>
       <c r="C1821" t="s">
-        <v>2134</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1822" spans="1:3">
       <c r="A1822" s="40"/>
       <c r="C1822" t="s">
-        <v>2097</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
       <c r="A1823" s="40"/>
-      <c r="C1823" s="86"/>
+      <c r="C1823" t="s">
+        <v>2107</v>
+      </c>
     </row>
     <row r="1824" spans="1:3">
       <c r="A1824" s="40"/>
-      <c r="C1824" s="86" t="s">
-        <v>2135</v>
-      </c>
+      <c r="C1824"/>
     </row>
     <row r="1825" spans="1:3">
       <c r="A1825" s="40"/>
-      <c r="C1825" t="s">
-        <v>2136</v>
+      <c r="C1825" s="86" t="s">
+        <v>2099</v>
       </c>
     </row>
     <row r="1826" spans="1:3">
       <c r="A1826" s="40"/>
-      <c r="C1826" t="s">
-        <v>2137</v>
+      <c r="C1826" s="86" t="s">
+        <v>2108</v>
       </c>
     </row>
     <row r="1827" spans="1:3">
       <c r="A1827" s="40"/>
-      <c r="C1827" t="s">
-        <v>2138</v>
+      <c r="C1827" s="86" t="s">
+        <v>2109</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
       <c r="A1828" s="40"/>
-      <c r="C1828" t="s">
-        <v>2139</v>
-      </c>
+      <c r="C1828" s="86"/>
     </row>
     <row r="1829" spans="1:3">
       <c r="A1829" s="40"/>
-      <c r="C1829"/>
+      <c r="C1829" s="86" t="s">
+        <v>2110</v>
+      </c>
     </row>
     <row r="1830" spans="1:3">
       <c r="A1830" s="40"/>
-      <c r="C1830" s="86" t="s">
-        <v>2111</v>
-      </c>
     </row>
     <row r="1831" spans="1:3">
       <c r="A1831" s="40"/>
-      <c r="C1831" s="86"/>
+      <c r="C1831" s="86" t="s">
+        <v>2111</v>
+      </c>
     </row>
     <row r="1832" spans="1:3">
       <c r="A1832" s="40"/>
-      <c r="C1832" s="86" t="s">
-        <v>2140</v>
+      <c r="C1832" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="1833" spans="1:3">
       <c r="A1833" s="40"/>
-      <c r="C1833" s="86"/>
+      <c r="C1833" t="s">
+        <v>2113</v>
+      </c>
     </row>
     <row r="1834" spans="1:3">
       <c r="A1834" s="40"/>
-      <c r="C1834" s="34" t="s">
-        <v>2094</v>
+      <c r="C1834" t="s">
+        <v>2114</v>
       </c>
     </row>
     <row r="1835" spans="1:3">
       <c r="A1835" s="40"/>
-      <c r="C1835" s="34" t="s">
-        <v>2060</v>
+      <c r="C1835" t="s">
+        <v>2115</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
       <c r="A1836" s="40"/>
-      <c r="C1836" s="34" t="s">
-        <v>2061</v>
+      <c r="C1836" t="s">
+        <v>2116</v>
       </c>
     </row>
     <row r="1837" spans="1:3">
       <c r="A1837" s="40"/>
-      <c r="C1837" s="56" t="s">
-        <v>2062</v>
+      <c r="C1837" t="s">
+        <v>2117</v>
       </c>
     </row>
     <row r="1838" spans="1:3">
       <c r="A1838" s="40"/>
-      <c r="C1838" s="56" t="s">
-        <v>2063</v>
+      <c r="C1838" t="s">
+        <v>2080</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
       <c r="A1839" s="40"/>
-      <c r="C1839" s="34" t="s">
-        <v>2064</v>
-      </c>
+      <c r="C1839" s="86"/>
     </row>
     <row r="1840" spans="1:3">
       <c r="A1840" s="40"/>
-      <c r="C1840" s="56" t="s">
-        <v>2065</v>
+      <c r="C1840" s="86" t="s">
+        <v>2118</v>
       </c>
     </row>
     <row r="1841" spans="1:3">
       <c r="A1841" s="40"/>
-      <c r="C1841" s="34" t="s">
-        <v>2066</v>
+      <c r="C1841" t="s">
+        <v>2119</v>
       </c>
     </row>
     <row r="1842" spans="1:3">
       <c r="A1842" s="40"/>
-      <c r="C1842" s="56" t="s">
-        <v>2067</v>
+      <c r="C1842" t="s">
+        <v>2120</v>
       </c>
     </row>
     <row r="1843" spans="1:3">
       <c r="A1843" s="40"/>
-      <c r="C1843" s="56"/>
+      <c r="C1843" t="s">
+        <v>2121</v>
+      </c>
     </row>
     <row r="1844" spans="1:3">
       <c r="A1844" s="40"/>
-      <c r="C1844" s="34" t="s">
-        <v>2068</v>
+      <c r="C1844" t="s">
+        <v>2122</v>
       </c>
     </row>
     <row r="1845" spans="1:3">
       <c r="A1845" s="40"/>
-      <c r="C1845" s="34" t="s">
-        <v>2069</v>
-      </c>
+      <c r="C1845"/>
     </row>
     <row r="1846" spans="1:3">
       <c r="A1846" s="40"/>
-      <c r="C1846" s="56" t="s">
-        <v>2070</v>
+      <c r="C1846" s="86" t="s">
+        <v>2094</v>
       </c>
     </row>
     <row r="1847" spans="1:3">
       <c r="A1847" s="40"/>
-      <c r="C1847" s="56" t="s">
-        <v>2071</v>
-      </c>
+      <c r="C1847" s="86"/>
     </row>
     <row r="1848" spans="1:3">
       <c r="A1848" s="40"/>
-      <c r="C1848" s="34" t="s">
-        <v>2072</v>
+      <c r="C1848" s="86" t="s">
+        <v>2123</v>
       </c>
     </row>
     <row r="1849" spans="1:3">
       <c r="A1849" s="40"/>
-      <c r="C1849" s="56" t="s">
-        <v>2084</v>
-      </c>
+      <c r="C1849" s="86"/>
     </row>
     <row r="1850" spans="1:3">
       <c r="A1850" s="40"/>
-      <c r="C1850" s="56" t="s">
-        <v>2085</v>
+      <c r="C1850" s="34" t="s">
+        <v>2077</v>
       </c>
     </row>
     <row r="1851" spans="1:3">
       <c r="A1851" s="40"/>
-      <c r="C1851" s="56"/>
+      <c r="C1851" s="34" t="s">
+        <v>2043</v>
+      </c>
     </row>
     <row r="1852" spans="1:3">
       <c r="A1852" s="40"/>
       <c r="C1852" s="34" t="s">
-        <v>2073</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1853" spans="1:3">
       <c r="A1853" s="40"/>
-      <c r="C1853" s="34" t="s">
-        <v>2074</v>
+      <c r="C1853" s="56" t="s">
+        <v>2045</v>
       </c>
     </row>
     <row r="1854" spans="1:3">
       <c r="A1854" s="40"/>
       <c r="C1854" s="56" t="s">
-        <v>2075</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1855" spans="1:3">
       <c r="A1855" s="40"/>
-      <c r="C1855" s="56" t="s">
-        <v>2076</v>
+      <c r="C1855" s="34" t="s">
+        <v>2047</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
       <c r="A1856" s="40"/>
-      <c r="C1856" s="34" t="s">
-        <v>2077</v>
+      <c r="C1856" s="56" t="s">
+        <v>2048</v>
       </c>
     </row>
     <row r="1857" spans="1:3">
       <c r="A1857" s="40"/>
-      <c r="C1857" s="56" t="s">
-        <v>2078</v>
+      <c r="C1857" s="34" t="s">
+        <v>2049</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
       <c r="A1858" s="40"/>
       <c r="C1858" s="56" t="s">
-        <v>2086</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1859" spans="1:3">
       <c r="A1859" s="40"/>
-      <c r="C1859" s="34" t="s">
-        <v>2079</v>
-      </c>
+      <c r="C1859" s="56"/>
     </row>
     <row r="1860" spans="1:3">
       <c r="A1860" s="40"/>
-      <c r="C1860" s="56" t="s">
-        <v>2087</v>
+      <c r="C1860" s="34" t="s">
+        <v>2051</v>
       </c>
     </row>
     <row r="1861" spans="1:3">
       <c r="A1861" s="40"/>
-      <c r="C1861" s="56" t="s">
-        <v>2088</v>
+      <c r="C1861" s="34" t="s">
+        <v>2052</v>
       </c>
     </row>
     <row r="1862" spans="1:3">
       <c r="A1862" s="40"/>
-      <c r="C1862" s="56"/>
+      <c r="C1862" s="56" t="s">
+        <v>2053</v>
+      </c>
     </row>
     <row r="1863" spans="1:3">
       <c r="A1863" s="40"/>
-      <c r="C1863" s="34" t="s">
-        <v>2080</v>
+      <c r="C1863" s="56" t="s">
+        <v>2054</v>
       </c>
     </row>
     <row r="1864" spans="1:3">
       <c r="A1864" s="40"/>
       <c r="C1864" s="34" t="s">
-        <v>2081</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1865" spans="1:3">
       <c r="A1865" s="40"/>
       <c r="C1865" s="56" t="s">
-        <v>2089</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1866" spans="1:3">
       <c r="A1866" s="40"/>
       <c r="C1866" s="56" t="s">
-        <v>2090</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1867" spans="1:3">
       <c r="A1867" s="40"/>
-      <c r="C1867" s="34" t="s">
-        <v>2082</v>
-      </c>
+      <c r="C1867" s="56"/>
     </row>
     <row r="1868" spans="1:3">
       <c r="A1868" s="40"/>
-      <c r="C1868" s="56" t="s">
-        <v>2091</v>
+      <c r="C1868" s="34" t="s">
+        <v>2056</v>
       </c>
     </row>
     <row r="1869" spans="1:3">
       <c r="A1869" s="40"/>
       <c r="C1869" s="34" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:3" ht="30.5" customHeight="1">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:3">
       <c r="A1870" s="40"/>
       <c r="C1870" s="56" t="s">
-        <v>2092</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1871" spans="1:3">
       <c r="A1871" s="40"/>
-      <c r="C1871" s="34"/>
-    </row>
-    <row r="1872" spans="1:3" ht="27">
+      <c r="C1871" s="56" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:3">
       <c r="A1872" s="40"/>
       <c r="C1872" s="34" t="s">
-        <v>2093</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1873" spans="1:3">
       <c r="A1873" s="40"/>
-      <c r="C1873" s="34"/>
-    </row>
-    <row r="1874" spans="1:3" ht="13" customHeight="1">
-      <c r="A1874" s="43"/>
-      <c r="B1874" s="92"/>
-      <c r="C1874" s="93"/>
+      <c r="C1873" s="56" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:3">
+      <c r="A1874" s="40"/>
+      <c r="C1874" s="56" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:3">
+      <c r="A1875" s="40"/>
+      <c r="C1875" s="34" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:3">
+      <c r="A1876" s="40"/>
+      <c r="C1876" s="56" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:3">
+      <c r="A1877" s="40"/>
+      <c r="C1877" s="56" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:3">
+      <c r="A1878" s="40"/>
+      <c r="C1878" s="56"/>
+    </row>
+    <row r="1879" spans="1:3">
+      <c r="A1879" s="40"/>
+      <c r="C1879" s="34" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:3">
+      <c r="A1880" s="40"/>
+      <c r="C1880" s="34" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:3">
+      <c r="A1881" s="40"/>
+      <c r="C1881" s="56" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:3">
+      <c r="A1882" s="40"/>
+      <c r="C1882" s="56" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:3">
+      <c r="A1883" s="40"/>
+      <c r="C1883" s="34" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:3">
+      <c r="A1884" s="40"/>
+      <c r="C1884" s="56" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:3">
+      <c r="A1885" s="40"/>
+      <c r="C1885" s="34" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:3" ht="30.5" customHeight="1">
+      <c r="A1886" s="40"/>
+      <c r="C1886" s="56" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:3">
+      <c r="A1887" s="40"/>
+      <c r="C1887" s="34"/>
+    </row>
+    <row r="1888" spans="1:3" ht="27">
+      <c r="A1888" s="40"/>
+      <c r="C1888" s="34" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:3">
+      <c r="A1889" s="40"/>
+      <c r="C1889" s="34"/>
+    </row>
+    <row r="1890" spans="1:3" ht="13" customHeight="1">
+      <c r="A1890" s="43"/>
+      <c r="B1890" s="92"/>
+      <c r="C1890" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1874:C1874"/>
-    <mergeCell ref="A1574:C1574"/>
+    <mergeCell ref="B1890:C1890"/>
+    <mergeCell ref="A1590:C1590"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A362:C362"/>
     <mergeCell ref="A936:C936"/>
-    <mergeCell ref="A1144:C1144"/>
+    <mergeCell ref="A1160:C1160"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C395" r:id="rId1" tooltip="https://app.pluralsight.com/course-player?clipId=fa3b6ab5-59f7-41d8-8c02-fb556f4f3a46" xr:uid="{A77066B9-DD46-4592-B096-6F3A270189BC}"/>

--- a/TOC/2024.Nov.ASDE Training TOC - v4.xlsx
+++ b/TOC/2024.Nov.ASDE Training TOC - v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\PSI-2024 Nov ASDE BLR Batch 1\TOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EB54D5-0B20-4E22-9537-05E4ABBA1B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD29C13F-8EF3-42A1-96A7-B7E98746E710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Template - 2022" sheetId="10" r:id="rId1"/>
@@ -18355,7 +18355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A7F07D-A6D7-4BA7-ADA6-D6244D6DC8FA}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
       <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
@@ -18964,9 +18964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E77354-39DB-4E45-A638-0E6F14DE89BD}">
   <dimension ref="A1:M1890"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A933" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C938" sqref="C938"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1412" sqref="C1412:C1415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/TOC/2024.Nov.ASDE Training TOC - v4.xlsx
+++ b/TOC/2024.Nov.ASDE Training TOC - v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online Training\ACE\Sapient\PSI-2024 Nov ASDE BLR Batch 1\TOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD29C13F-8EF3-42A1-96A7-B7E98746E710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69E018C-7FF7-4CB4-B3FA-15AA45A85CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="2155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="2141">
   <si>
     <t>Topic</t>
   </si>
@@ -6438,111 +6438,6 @@
     <t>Cloud Console</t>
   </si>
   <si>
-    <t>1. Provisioning GKE Cluster</t>
-  </si>
-  <si>
-    <t>1.1 Set Up GCP Environment</t>
-  </si>
-  <si>
-    <t>Install and configure Google Cloud CLI</t>
-  </si>
-  <si>
-    <t>Enable required GCP APIs</t>
-  </si>
-  <si>
-    <t>1.2 Provision GKE Cluster</t>
-  </si>
-  <si>
-    <t>Using gcloud CLI for manual setup</t>
-  </si>
-  <si>
-    <t>1.3 Connect to the Cluster</t>
-  </si>
-  <si>
-    <t>Authenticating kubectl with GKE</t>
-  </si>
-  <si>
-    <t>2. Deployment Pipeline</t>
-  </si>
-  <si>
-    <t>2.1 Create Deployment Pipeline in Jenkins</t>
-  </si>
-  <si>
-    <t>Define Jenkins pipeline steps</t>
-  </si>
-  <si>
-    <t>Integrate Docker and Kubernetes configurations</t>
-  </si>
-  <si>
-    <t>2.2 Set Up Secrets</t>
-  </si>
-  <si>
-    <t>3. Application Deployment</t>
-  </si>
-  <si>
-    <t>3.1 Create Kubernetes Manifests</t>
-  </si>
-  <si>
-    <t>Deployment configuration (deployment.yaml)</t>
-  </si>
-  <si>
-    <t>Service configuration (service.yaml)</t>
-  </si>
-  <si>
-    <t>3.2 Build and Push Docker Image</t>
-  </si>
-  <si>
-    <t>Dockerfile setup</t>
-  </si>
-  <si>
-    <t>3.3 Deploy to GKE</t>
-  </si>
-  <si>
-    <t>4. Monitor and Manage</t>
-  </si>
-  <si>
-    <t>4.1 Monitor Deployment</t>
-  </si>
-  <si>
-    <t>4.2 Scaling</t>
-  </si>
-  <si>
-    <t>4.3 Logging and Alerts</t>
-  </si>
-  <si>
-    <t>Manage secrets in CI/CD tools</t>
-  </si>
-  <si>
-    <t>Store service account credentials securely</t>
-  </si>
-  <si>
-    <t>Push images to Google Container Registry (GCR)</t>
-  </si>
-  <si>
-    <t>Apply Kubernetes manifests with kubectl</t>
-  </si>
-  <si>
-    <t>Verify deployments and services</t>
-  </si>
-  <si>
-    <t>Use kubectl for pod and service status</t>
-  </si>
-  <si>
-    <t>Access GKE dashboards</t>
-  </si>
-  <si>
-    <t>Scale deployments manually and automatically</t>
-  </si>
-  <si>
-    <t>Enable and access Google Cloud Observability for logging, monitoring, and alerting to gain visibility into the GKE cluster.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** This process will deploy and test a basic React app in the  Kubernetes cluster. </t>
-  </si>
-  <si>
-    <t>Hands-On: GKE - Provisioning, Deployment Pipeline and App Deployment</t>
-  </si>
-  <si>
     <t>Understanding Scattering Read and Gathering Write Operations</t>
   </si>
   <si>
@@ -6796,6 +6691,69 @@
   </si>
   <si>
     <t>7. Using Docker Compose Commands</t>
+  </si>
+  <si>
+    <t>Hands-On: Deploying the Product Management Application on Google Cloud Storage</t>
+  </si>
+  <si>
+    <t>1: Set Up Google Cloud Storage</t>
+  </si>
+  <si>
+    <t>1.1 Create a Google Cloud Project</t>
+  </si>
+  <si>
+    <t>1.2 Create a Storage Bucket</t>
+  </si>
+  <si>
+    <t>2: Prepare Your Application for Static Deployment</t>
+  </si>
+  <si>
+    <t>2.1 Update next.config.js</t>
+  </si>
+  <si>
+    <t>2.2 Build the Static Site</t>
+  </si>
+  <si>
+    <t>3: Upload Files to Google Cloud Storage</t>
+  </si>
+  <si>
+    <t>3.1 Install Google Cloud CLI</t>
+  </si>
+  <si>
+    <t>3.2 Authenticate with Google Cloud</t>
+  </si>
+  <si>
+    <t>3.3 Set Your Project</t>
+  </si>
+  <si>
+    <t>3.4 Upload Files</t>
+  </si>
+  <si>
+    <t>4: Make the Bucket Public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5: Configure the Bucket for Static Hosting </t>
+  </si>
+  <si>
+    <t>6: Test Your Deployment</t>
+  </si>
+  <si>
+    <t>7: Update the Deployment</t>
+  </si>
+  <si>
+    <t>If you make changes to your app:</t>
+  </si>
+  <si>
+    <t>Complete Workflow</t>
+  </si>
+  <si>
+    <t>Commands Overview</t>
+  </si>
+  <si>
+    <t>1. Rebuild the project</t>
+  </si>
+  <si>
+    <t>2. Re-upload the out directory to the bucket</t>
   </si>
 </sst>
 </file>
@@ -7250,7 +7208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7510,6 +7468,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -18962,11 +18923,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E77354-39DB-4E45-A638-0E6F14DE89BD}">
-  <dimension ref="A1:M1890"/>
+  <dimension ref="A1:M1879"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1412" sqref="C1412:C1415"/>
+      <pane ySplit="2" topLeftCell="A1572" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1873" sqref="D1873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -20843,7 +20804,7 @@
     <row r="320" spans="1:9" ht="15.5">
       <c r="B320" s="30"/>
       <c r="C320" s="61" t="s">
-        <v>2078</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="321" spans="2:9" ht="15.5">
@@ -20901,7 +20862,7 @@
     <row r="330" spans="2:9" ht="15.5">
       <c r="B330" s="30"/>
       <c r="C330" s="26" t="s">
-        <v>2079</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="331" spans="2:9" ht="15.5">
@@ -24185,7 +24146,7 @@
       <c r="A939" s="34"/>
       <c r="B939" s="25"/>
       <c r="C939" s="28" t="s">
-        <v>2124</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="940" spans="1:3">
@@ -24196,49 +24157,49 @@
       <c r="A941" s="34"/>
       <c r="B941" s="25"/>
       <c r="C941" s="28" t="s">
-        <v>2125</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="942" spans="1:3">
       <c r="A942" s="34"/>
       <c r="B942" s="25"/>
       <c r="C942" s="28" t="s">
-        <v>2126</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="943" spans="1:3">
       <c r="A943" s="34"/>
       <c r="B943" s="25"/>
       <c r="C943" s="28" t="s">
-        <v>2127</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="944" spans="1:3">
       <c r="A944" s="34"/>
       <c r="B944" s="25"/>
       <c r="C944" s="28" t="s">
-        <v>2128</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="945" spans="1:3">
       <c r="A945" s="34"/>
       <c r="B945" s="25"/>
       <c r="C945" s="28" t="s">
-        <v>2129</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="946" spans="1:3">
       <c r="A946" s="34"/>
       <c r="B946" s="25"/>
       <c r="C946" s="28" t="s">
-        <v>2130</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="947" spans="1:3">
       <c r="A947" s="34"/>
       <c r="B947" s="25"/>
       <c r="C947" s="28" t="s">
-        <v>2131</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="948" spans="1:3">
@@ -24249,63 +24210,63 @@
       <c r="A949" s="34"/>
       <c r="B949" s="25"/>
       <c r="C949" s="28" t="s">
-        <v>2132</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="950" spans="1:3">
       <c r="A950" s="34"/>
       <c r="B950" s="25"/>
       <c r="C950" s="28" t="s">
-        <v>2133</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="951" spans="1:3">
       <c r="A951" s="34"/>
       <c r="B951" s="25"/>
       <c r="C951" s="28" t="s">
-        <v>2134</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="952" spans="1:3">
       <c r="A952" s="34"/>
       <c r="B952" s="25"/>
       <c r="C952" s="28" t="s">
-        <v>2135</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="953" spans="1:3">
       <c r="A953" s="34"/>
       <c r="B953" s="25"/>
       <c r="C953" s="28" t="s">
-        <v>2136</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="954" spans="1:3">
       <c r="A954" s="34"/>
       <c r="B954" s="25"/>
       <c r="C954" s="28" t="s">
-        <v>2137</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="955" spans="1:3">
       <c r="A955" s="34"/>
       <c r="B955" s="25"/>
       <c r="C955" s="28" t="s">
-        <v>2138</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="956" spans="1:3">
       <c r="A956" s="34"/>
       <c r="B956" s="25"/>
       <c r="C956" s="28" t="s">
-        <v>2139</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="957" spans="1:3">
       <c r="A957" s="34"/>
       <c r="B957" s="25"/>
       <c r="C957" s="28" t="s">
-        <v>2140</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="958" spans="1:3">
@@ -24316,56 +24277,56 @@
       <c r="A959" s="34"/>
       <c r="B959" s="25"/>
       <c r="C959" s="28" t="s">
-        <v>2141</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="960" spans="1:3">
       <c r="A960" s="34"/>
       <c r="B960" s="25"/>
       <c r="C960" s="28" t="s">
-        <v>2133</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="961" spans="1:3">
       <c r="A961" s="34"/>
       <c r="B961" s="25"/>
       <c r="C961" s="28" t="s">
-        <v>2142</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="962" spans="1:3">
       <c r="A962" s="34"/>
       <c r="B962" s="25"/>
       <c r="C962" s="28" t="s">
-        <v>2143</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="963" spans="1:3">
       <c r="A963" s="34"/>
       <c r="B963" s="25"/>
       <c r="C963" s="28" t="s">
-        <v>2144</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="964" spans="1:3">
       <c r="A964" s="34"/>
       <c r="B964" s="25"/>
       <c r="C964" s="28" t="s">
-        <v>2145</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="965" spans="1:3">
       <c r="A965" s="34"/>
       <c r="B965" s="25"/>
       <c r="C965" s="28" t="s">
-        <v>2146</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="966" spans="1:3">
       <c r="A966" s="34"/>
       <c r="B966" s="25"/>
       <c r="C966" s="28" t="s">
-        <v>2147</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="967" spans="1:3">
@@ -24376,63 +24337,63 @@
       <c r="A968" s="34"/>
       <c r="B968" s="25"/>
       <c r="C968" s="28" t="s">
-        <v>2148</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="969" spans="1:3">
       <c r="A969" s="34"/>
       <c r="B969" s="25"/>
       <c r="C969" s="28" t="s">
-        <v>2133</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="970" spans="1:3">
       <c r="A970" s="34"/>
       <c r="B970" s="25"/>
       <c r="C970" s="28" t="s">
-        <v>2149</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="971" spans="1:3">
       <c r="A971" s="34"/>
       <c r="B971" s="25"/>
       <c r="C971" s="28" t="s">
-        <v>2150</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="972" spans="1:3">
       <c r="A972" s="34"/>
       <c r="B972" s="25"/>
       <c r="C972" s="28" t="s">
-        <v>2151</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="973" spans="1:3">
       <c r="A973" s="34"/>
       <c r="B973" s="25"/>
       <c r="C973" s="28" t="s">
-        <v>2152</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="974" spans="1:3">
       <c r="A974" s="34"/>
       <c r="B974" s="25"/>
       <c r="C974" s="28" t="s">
-        <v>2153</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="975" spans="1:3">
       <c r="A975" s="34"/>
       <c r="B975" s="25"/>
       <c r="C975" s="28" t="s">
-        <v>2154</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="976" spans="1:3">
       <c r="A976" s="34"/>
       <c r="B976" s="25"/>
       <c r="C976" s="28" t="s">
-        <v>2140</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="977" spans="2:3">
@@ -29072,25 +29033,25 @@
     <row r="1786" spans="1:3">
       <c r="A1786" s="40"/>
       <c r="C1786" s="34" t="s">
-        <v>2080</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1787" spans="1:3">
       <c r="A1787" s="40"/>
       <c r="C1787" s="56" t="s">
-        <v>2081</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1788" spans="1:3">
       <c r="A1788" s="40"/>
       <c r="C1788" s="56" t="s">
-        <v>2082</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1789" spans="1:3">
       <c r="A1789" s="40"/>
       <c r="C1789" s="56" t="s">
-        <v>2083</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1790" spans="1:3">
@@ -29100,43 +29061,43 @@
     <row r="1791" spans="1:3">
       <c r="A1791" s="40"/>
       <c r="C1791" s="34" t="s">
-        <v>2084</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1792" spans="1:3">
       <c r="A1792" s="40"/>
       <c r="C1792" t="s">
-        <v>2085</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1793" spans="1:3">
       <c r="A1793" s="40"/>
       <c r="C1793" t="s">
-        <v>2086</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1794" spans="1:3">
       <c r="A1794" s="40"/>
       <c r="C1794" t="s">
-        <v>2087</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1795" spans="1:3">
       <c r="A1795" s="40"/>
       <c r="C1795" s="86" t="s">
-        <v>2088</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1796" spans="1:3">
       <c r="A1796" s="40"/>
       <c r="C1796" t="s">
-        <v>2090</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
       <c r="A1797" s="40"/>
       <c r="C1797" t="s">
-        <v>2089</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1798" spans="1:3">
@@ -29146,7 +29107,7 @@
     <row r="1799" spans="1:3">
       <c r="A1799" s="40"/>
       <c r="C1799" s="86" t="s">
-        <v>2091</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1800" spans="1:3">
@@ -29156,19 +29117,19 @@
     <row r="1801" spans="1:3">
       <c r="A1801" s="40"/>
       <c r="C1801" s="34" t="s">
-        <v>2092</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1802" spans="1:3">
       <c r="A1802" s="40"/>
       <c r="C1802" t="s">
-        <v>2093</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1803" spans="1:3">
       <c r="A1803" s="40"/>
       <c r="C1803" t="s">
-        <v>2094</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1804" spans="1:3">
@@ -29178,19 +29139,19 @@
     <row r="1805" spans="1:3">
       <c r="A1805" s="40"/>
       <c r="C1805" s="34" t="s">
-        <v>2095</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1806" spans="1:3">
       <c r="A1806" s="40"/>
       <c r="C1806" t="s">
-        <v>2097</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1807" spans="1:3">
       <c r="A1807" s="40"/>
       <c r="C1807" t="s">
-        <v>2096</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1808" spans="1:3">
@@ -29200,7 +29161,7 @@
     <row r="1809" spans="1:3">
       <c r="A1809" s="40"/>
       <c r="C1809" s="34" t="s">
-        <v>2098</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1810" spans="1:3">
@@ -29210,7 +29171,7 @@
     <row r="1811" spans="1:3">
       <c r="A1811" s="40"/>
       <c r="C1811" s="34" t="s">
-        <v>2099</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1812" spans="1:3">
@@ -29220,37 +29181,37 @@
     <row r="1813" spans="1:3">
       <c r="A1813" s="40"/>
       <c r="C1813" s="34" t="s">
-        <v>2100</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1814" spans="1:3">
       <c r="A1814" s="40"/>
       <c r="C1814" t="s">
-        <v>2101</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1815" spans="1:3">
       <c r="A1815" s="40"/>
       <c r="C1815" t="s">
-        <v>2102</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1816" spans="1:3">
       <c r="A1816" s="40"/>
       <c r="C1816" t="s">
-        <v>2103</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1817" spans="1:3">
       <c r="A1817" s="40"/>
       <c r="C1817" t="s">
-        <v>2099</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1818" spans="1:3">
       <c r="A1818" s="40"/>
       <c r="C1818" t="s">
-        <v>2105</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1819" spans="1:3">
@@ -29260,25 +29221,25 @@
     <row r="1820" spans="1:3">
       <c r="A1820" s="40"/>
       <c r="C1820" s="34" t="s">
-        <v>2104</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1821" spans="1:3">
       <c r="A1821" s="40"/>
       <c r="C1821" t="s">
-        <v>2106</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1822" spans="1:3">
       <c r="A1822" s="40"/>
       <c r="C1822" t="s">
-        <v>2082</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1823" spans="1:3">
       <c r="A1823" s="40"/>
       <c r="C1823" t="s">
-        <v>2107</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1824" spans="1:3">
@@ -29288,19 +29249,19 @@
     <row r="1825" spans="1:3">
       <c r="A1825" s="40"/>
       <c r="C1825" s="86" t="s">
-        <v>2099</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1826" spans="1:3">
       <c r="A1826" s="40"/>
       <c r="C1826" s="86" t="s">
-        <v>2108</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1827" spans="1:3">
       <c r="A1827" s="40"/>
       <c r="C1827" s="86" t="s">
-        <v>2109</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
@@ -29310,7 +29271,7 @@
     <row r="1829" spans="1:3">
       <c r="A1829" s="40"/>
       <c r="C1829" s="86" t="s">
-        <v>2110</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1830" spans="1:3">
@@ -29319,49 +29280,49 @@
     <row r="1831" spans="1:3">
       <c r="A1831" s="40"/>
       <c r="C1831" s="86" t="s">
-        <v>2111</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1832" spans="1:3">
       <c r="A1832" s="40"/>
       <c r="C1832" t="s">
-        <v>2112</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1833" spans="1:3">
       <c r="A1833" s="40"/>
       <c r="C1833" t="s">
-        <v>2113</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1834" spans="1:3">
       <c r="A1834" s="40"/>
       <c r="C1834" t="s">
-        <v>2114</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1835" spans="1:3">
       <c r="A1835" s="40"/>
       <c r="C1835" t="s">
-        <v>2115</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
       <c r="A1836" s="40"/>
       <c r="C1836" t="s">
-        <v>2116</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1837" spans="1:3">
       <c r="A1837" s="40"/>
       <c r="C1837" t="s">
-        <v>2117</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1838" spans="1:3">
       <c r="A1838" s="40"/>
       <c r="C1838" t="s">
-        <v>2080</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
@@ -29371,31 +29332,31 @@
     <row r="1840" spans="1:3">
       <c r="A1840" s="40"/>
       <c r="C1840" s="86" t="s">
-        <v>2118</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1841" spans="1:3">
       <c r="A1841" s="40"/>
       <c r="C1841" t="s">
-        <v>2119</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1842" spans="1:3">
       <c r="A1842" s="40"/>
       <c r="C1842" t="s">
-        <v>2120</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1843" spans="1:3">
       <c r="A1843" s="40"/>
       <c r="C1843" t="s">
-        <v>2121</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1844" spans="1:3">
       <c r="A1844" s="40"/>
       <c r="C1844" t="s">
-        <v>2122</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1845" spans="1:3">
@@ -29405,7 +29366,7 @@
     <row r="1846" spans="1:3">
       <c r="A1846" s="40"/>
       <c r="C1846" s="86" t="s">
-        <v>2094</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1847" spans="1:3">
@@ -29415,251 +29376,179 @@
     <row r="1848" spans="1:3">
       <c r="A1848" s="40"/>
       <c r="C1848" s="86" t="s">
-        <v>2123</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1849" spans="1:3">
       <c r="A1849" s="40"/>
       <c r="C1849" s="86"/>
     </row>
-    <row r="1850" spans="1:3">
+    <row r="1850" spans="1:3" ht="27">
       <c r="A1850" s="40"/>
-      <c r="C1850" s="34" t="s">
-        <v>2077</v>
+      <c r="C1850" s="81" t="s">
+        <v>2120</v>
       </c>
     </row>
     <row r="1851" spans="1:3">
       <c r="A1851" s="40"/>
-      <c r="C1851" s="34" t="s">
-        <v>2043</v>
+      <c r="C1851" s="81" t="s">
+        <v>2121</v>
       </c>
     </row>
     <row r="1852" spans="1:3">
       <c r="A1852" s="40"/>
-      <c r="C1852" s="34" t="s">
-        <v>2044</v>
+      <c r="C1852" s="84" t="s">
+        <v>2122</v>
       </c>
     </row>
     <row r="1853" spans="1:3">
       <c r="A1853" s="40"/>
-      <c r="C1853" s="56" t="s">
-        <v>2045</v>
+      <c r="C1853" s="84" t="s">
+        <v>2123</v>
       </c>
     </row>
     <row r="1854" spans="1:3">
       <c r="A1854" s="40"/>
-      <c r="C1854" s="56" t="s">
-        <v>2046</v>
-      </c>
+      <c r="C1854" s="84"/>
     </row>
     <row r="1855" spans="1:3">
       <c r="A1855" s="40"/>
-      <c r="C1855" s="34" t="s">
-        <v>2047</v>
+      <c r="C1855" s="81" t="s">
+        <v>2124</v>
       </c>
     </row>
     <row r="1856" spans="1:3">
       <c r="A1856" s="40"/>
-      <c r="C1856" s="56" t="s">
-        <v>2048</v>
+      <c r="C1856" s="84" t="s">
+        <v>2125</v>
       </c>
     </row>
     <row r="1857" spans="1:3">
       <c r="A1857" s="40"/>
-      <c r="C1857" s="34" t="s">
-        <v>2049</v>
+      <c r="C1857" s="84" t="s">
+        <v>2126</v>
       </c>
     </row>
     <row r="1858" spans="1:3">
       <c r="A1858" s="40"/>
-      <c r="C1858" s="56" t="s">
-        <v>2050</v>
-      </c>
+      <c r="C1858" s="84"/>
     </row>
     <row r="1859" spans="1:3">
       <c r="A1859" s="40"/>
-      <c r="C1859" s="56"/>
+      <c r="C1859" s="81" t="s">
+        <v>2127</v>
+      </c>
     </row>
     <row r="1860" spans="1:3">
       <c r="A1860" s="40"/>
-      <c r="C1860" s="34" t="s">
-        <v>2051</v>
+      <c r="C1860" s="84" t="s">
+        <v>2128</v>
       </c>
     </row>
     <row r="1861" spans="1:3">
       <c r="A1861" s="40"/>
-      <c r="C1861" s="34" t="s">
-        <v>2052</v>
+      <c r="C1861" s="84" t="s">
+        <v>2129</v>
       </c>
     </row>
     <row r="1862" spans="1:3">
       <c r="A1862" s="40"/>
-      <c r="C1862" s="56" t="s">
-        <v>2053</v>
+      <c r="C1862" s="84" t="s">
+        <v>2130</v>
       </c>
     </row>
     <row r="1863" spans="1:3">
       <c r="A1863" s="40"/>
-      <c r="C1863" s="56" t="s">
-        <v>2054</v>
+      <c r="C1863" s="84" t="s">
+        <v>2131</v>
       </c>
     </row>
     <row r="1864" spans="1:3">
       <c r="A1864" s="40"/>
-      <c r="C1864" s="34" t="s">
-        <v>2055</v>
-      </c>
+      <c r="C1864" s="84"/>
     </row>
     <row r="1865" spans="1:3">
       <c r="A1865" s="40"/>
-      <c r="C1865" s="56" t="s">
-        <v>2067</v>
+      <c r="C1865" s="81" t="s">
+        <v>2132</v>
       </c>
     </row>
     <row r="1866" spans="1:3">
       <c r="A1866" s="40"/>
-      <c r="C1866" s="56" t="s">
-        <v>2068</v>
-      </c>
+      <c r="C1866" s="84"/>
     </row>
     <row r="1867" spans="1:3">
       <c r="A1867" s="40"/>
-      <c r="C1867" s="56"/>
+      <c r="C1867" s="81" t="s">
+        <v>2133</v>
+      </c>
     </row>
     <row r="1868" spans="1:3">
       <c r="A1868" s="40"/>
-      <c r="C1868" s="34" t="s">
-        <v>2056</v>
-      </c>
+      <c r="C1868" s="84"/>
     </row>
     <row r="1869" spans="1:3">
       <c r="A1869" s="40"/>
-      <c r="C1869" s="34" t="s">
-        <v>2057</v>
+      <c r="C1869" s="81" t="s">
+        <v>2134</v>
       </c>
     </row>
     <row r="1870" spans="1:3">
       <c r="A1870" s="40"/>
-      <c r="C1870" s="56" t="s">
-        <v>2058</v>
-      </c>
+      <c r="C1870" s="84"/>
     </row>
     <row r="1871" spans="1:3">
       <c r="A1871" s="40"/>
-      <c r="C1871" s="56" t="s">
-        <v>2059</v>
+      <c r="C1871" s="81" t="s">
+        <v>2135</v>
       </c>
     </row>
     <row r="1872" spans="1:3">
       <c r="A1872" s="40"/>
-      <c r="C1872" s="34" t="s">
-        <v>2060</v>
+      <c r="C1872" s="84" t="s">
+        <v>2136</v>
       </c>
     </row>
     <row r="1873" spans="1:3">
       <c r="A1873" s="40"/>
-      <c r="C1873" s="56" t="s">
-        <v>2061</v>
+      <c r="C1873" s="94" t="s">
+        <v>2139</v>
       </c>
     </row>
     <row r="1874" spans="1:3">
       <c r="A1874" s="40"/>
-      <c r="C1874" s="56" t="s">
-        <v>2069</v>
+      <c r="C1874" s="94" t="s">
+        <v>2140</v>
       </c>
     </row>
     <row r="1875" spans="1:3">
       <c r="A1875" s="40"/>
-      <c r="C1875" s="34" t="s">
-        <v>2062</v>
-      </c>
+      <c r="C1875" s="84"/>
     </row>
     <row r="1876" spans="1:3">
       <c r="A1876" s="40"/>
-      <c r="C1876" s="56" t="s">
-        <v>2070</v>
+      <c r="C1876" s="84" t="s">
+        <v>2137</v>
       </c>
     </row>
     <row r="1877" spans="1:3">
       <c r="A1877" s="40"/>
-      <c r="C1877" s="56" t="s">
-        <v>2071</v>
+      <c r="C1877" s="84" t="s">
+        <v>2138</v>
       </c>
     </row>
     <row r="1878" spans="1:3">
       <c r="A1878" s="40"/>
-      <c r="C1878" s="56"/>
-    </row>
-    <row r="1879" spans="1:3">
-      <c r="A1879" s="40"/>
-      <c r="C1879" s="34" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:3">
-      <c r="A1880" s="40"/>
-      <c r="C1880" s="34" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:3">
-      <c r="A1881" s="40"/>
-      <c r="C1881" s="56" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:3">
-      <c r="A1882" s="40"/>
-      <c r="C1882" s="56" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:3">
-      <c r="A1883" s="40"/>
-      <c r="C1883" s="34" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:3">
-      <c r="A1884" s="40"/>
-      <c r="C1884" s="56" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:3">
-      <c r="A1885" s="40"/>
-      <c r="C1885" s="34" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:3" ht="30.5" customHeight="1">
-      <c r="A1886" s="40"/>
-      <c r="C1886" s="56" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:3">
-      <c r="A1887" s="40"/>
-      <c r="C1887" s="34"/>
-    </row>
-    <row r="1888" spans="1:3" ht="27">
-      <c r="A1888" s="40"/>
-      <c r="C1888" s="34" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:3">
-      <c r="A1889" s="40"/>
-      <c r="C1889" s="34"/>
-    </row>
-    <row r="1890" spans="1:3" ht="13" customHeight="1">
-      <c r="A1890" s="43"/>
-      <c r="B1890" s="92"/>
-      <c r="C1890" s="93"/>
+      <c r="C1878" s="34"/>
+    </row>
+    <row r="1879" spans="1:3" ht="13" customHeight="1">
+      <c r="A1879" s="43"/>
+      <c r="B1879" s="92"/>
+      <c r="C1879" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1890:C1890"/>
+    <mergeCell ref="B1879:C1879"/>
     <mergeCell ref="A1590:C1590"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
